--- a/Traducao_Ajustes.xlsx
+++ b/Traducao_Ajustes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCAGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCAGit\traducao-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838C469-672D-4A39-8D24-6C6686154D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21714D6A-F12A-45C7-A288-1768081853A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13C5A9BC-BB4B-4582-92D1-4AEF74685F3B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Observações" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Traduções!$A$1:$D$696</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Traduções!$A$1:$D$697</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1671">
   <si>
     <t>Path</t>
   </si>
@@ -1554,18 +1554,12 @@
     <t xml:space="preserve">Portal del Cliente </t>
   </si>
   <si>
-    <t>Projeto desenvolvido respeitando os padrões exigidos pelo cliente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project developed according to the standards required by the client. </t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto desarrollado de acuerdo con las exigencias del cliente. </t>
   </si>
   <si>
-    <t>Portal desenvolvido sob a plataforma Adobe Experience Manager com o propósito de fornecer informações relevantes sobre gerenciamento de riscos de preços de mercadorias e desta forma auxiliar aos clientes da Cargill a comprar ou vender mercadorias.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Portal developed on the Adobe Experience Manager platform for providing relevant information on the cost of merchandise risk management, thus helping Cargill’s clients buy or sell merchandise. </t>
   </si>
   <si>
@@ -1611,9 +1605,6 @@
     <t xml:space="preserve">Firma por Reconocimiento Facial </t>
   </si>
   <si>
-    <t>Nova funcionalidade incorporada ao Cotador Agents, que permite aos clientes assinarem as propostas através de reconhecimento facial.</t>
-  </si>
-  <si>
     <t xml:space="preserve">New feature incorporated to Quoting Agents, which allows clients to sign proposals through facial recognition. </t>
   </si>
   <si>
@@ -1644,16 +1635,10 @@
     <t xml:space="preserve">Sistema CAPERE - Solución de Facturación y Cobro integrado con el SAP </t>
   </si>
   <si>
-    <t>A solução CAPERE que hoje atende à diversos clientes, além de já ter sido integrada ao sistema PROTHEUS (TOTVS), possui agora novas funcionalidades que permitem a sua comunicação com o sistema SAP.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAPERE solution, which currently serves many clients and is integrated to the PROTHEUS (TOTVS) system, has now new features which allow its communication with the SAP system. </t>
   </si>
   <si>
     <t xml:space="preserve">La solución CAPERE, que hoy es usada por muchos clientes, además de ya estar integrada al sistema PROTHEUS (TOTVS), ahora cuenta con nuevas funciones que permiten su comunicación con el sistema SAP. </t>
-  </si>
-  <si>
-    <t>Mais um case de sucesso para um produto capaz de se integrar com as áreas operacionais das empresas, extraindo informações necessárias dos sistemas de apoio existentes (como bases de clientes e contratos) e cuidando das questões de faturamento e cobrança de forma automática, a partir da configuração de regras e parâmetros de forma bastante flexível, consistente e adaptadas a cada segmento de negócio.</t>
   </si>
   <si>
     <t xml:space="preserve">Another successful case for a product that can be integrated with the operational areas of companies, thus extracting the necessary information from the existing supporting systems (such as customer and contract bases) and addressing billing issues in an automated way, based on a set of rules and parameters; it is flexible, consistent, and adapted to each business area. </t>
@@ -1735,9 +1720,6 @@
     <t xml:space="preserve">Blockchain (P&amp;D) </t>
   </si>
   <si>
-    <t>Prova de conceito utilizando blockchain, uma das tecnologias mais promissoras da atualidade. A aplicação agrega confidencialidade e segurança a processos de troca de documentação entre empresas através de implementações específicas para cada aspecto das transações. Garante desta forma que informações confidenciais não circulem por máquinas desautorizadas, mantendo um registro confiável de todos os processos realizados, associando-os a usuários autenticados com assinaturas digitais e criptografia de chave assimétrica, visando diminuir ou até mesmo dispensar a necessidade de autoridades burocráticas, como cartórios, para autenticação dos documentos.</t>
-  </si>
-  <si>
     <t>Development of a proof of concept by using blockchain, which is one of the most promising current technologies. The application adds confidentiality and safety to document exchange processes through implementations specific to aspects of each transaction.  It ensures that confidential information is not disclosed by unauthorized machines, thus keeping a reliable record of all conducted processes, which are associated with authenticated users with digital signatures and public-key cryptography. It aims at decreasing or possibly eliminating the need for bureaucratic authorities, such as registry offices, for the authentication of documents.</t>
   </si>
   <si>
@@ -1753,9 +1735,6 @@
     <t xml:space="preserve">Integración con el WhatsApp </t>
   </si>
   <si>
-    <t>O projeto consiste em enviar mensagens aos pagadores referente às cobranças geradas a partir da  plataforma da Ricevi ({0}). São notificações contendo boletos, alertas de proximidade de vencimento e cobranças vencidas disponibilizadas através de um novo canal: WhatsApp.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project consists in sending messages to payers in reference to charges generated from the Ricevi platform (www.ricevi.com.br). They are notifications containing bills, due date alerts, and overdue payments available through a new channel: WhatsApp. </t>
   </si>
   <si>
@@ -1787,9 +1766,6 @@
   </si>
   <si>
     <t xml:space="preserve">Los datos son capturados de forma clara y dinámica durante la charla con los clientes y el valor de la cotización es calculado en tiempo real. </t>
-  </si>
-  <si>
-    <t>O aplicativo funciona independentementedemtente  de conexão com Internet.</t>
   </si>
   <si>
     <t xml:space="preserve">The app works regardless of Internet connection. </t>
@@ -1907,9 +1883,6 @@
     <t xml:space="preserve"> Disponibilidad del acceso al sitio del pagador (para que ellos puedan acceder a los cobros ya emitidos y por emitir) </t>
   </si>
   <si>
-    <t>Saiba mais em www.ricevi.com.br!</t>
-  </si>
-  <si>
     <t xml:space="preserve">For more information www.ricevi.com.br! </t>
   </si>
   <si>
@@ -2036,9 +2009,6 @@
     <t xml:space="preserve">Sistema para supervisión y gestión de proyectos y negocios en los segmentos público y privado como, por ejemplo, las obras de la construcción civil (sea por parte de la constructora, de la promotora o de los fondos de inversión), y las concesiones de infraestructura (carreteras, puertos, aeropuertos). </t>
   </si>
   <si>
-    <t>Registro do estudo de viabilidade (servindo como referência ou base  das despesas e das receitas projetadas inicialmente)</t>
-  </si>
-  <si>
     <t>Viability study record (as a reference or base for the initially budgeted expenses and revenues)</t>
   </si>
   <si>
@@ -2063,9 +2033,6 @@
     <t xml:space="preserve"> Supervisión del flujo de caja diario, con una "foto" de los gastos e ingresos ejecutados y futuros. </t>
   </si>
   <si>
-    <t>Visão sintética de um plano de contas contendo despesas e receitas com a possibilidade de detalhamemto (nível analítico)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Synthetic view of a chart of accounts containing expenses and revenues with the possibility of detailing (analytical level) </t>
   </si>
   <si>
@@ -2079,9 +2046,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Presentación de los llamados "documentos acreditativos" (contratos de compraventa, recibos de proveedores, autorizaciones y comprobantes de pago) </t>
-  </si>
-  <si>
-    <t>Apresentação de diversos indicadores financeiros relatvos à performance do empeendimento</t>
   </si>
   <si>
     <t xml:space="preserve"> View of different financial indicators related to the project’s performance </t>
@@ -2172,9 +2136,6 @@
     <t xml:space="preserve">Sistema de Monitoreo de Medios de Comunicación </t>
   </si>
   <si>
-    <t>Criado em 2006, na época denominado Media DNA, o sistema de monitoramento de veiculação de comerciais, foi uma ferramenta importante para agências de publicidade, grandes anunciantes e empresas de mídia. Até aquele momento, esse tipo de monitoramento era feito de forma visual, com a gravação em vídeo dos comerciais e com auxílio de pessoas para identificação de inconsistências. A partir do Media DNA, todo esse processo passou a ser automatizado.Entre os desafios encontrados, estavam:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed in 2006, at the time called Media DNA, the commercials airing monitoring system was an important tool for advertising agencies, leading advertisers, and media companies. Up to that moment, monitoring was carried out visually, i.e., by video recording commercials and people identifying possible inconsistencies. With the appearance of Media DNA, all this process became automated. Some of the challenges we faced at the time: </t>
   </si>
   <si>
@@ -2214,9 +2175,6 @@
     <t xml:space="preserve">Sistema de Rastreo de Recolección de Residuos </t>
   </si>
   <si>
-    <t>A solução permitia o acompanhamento dos caminhões coletores de lixo através de consultas georeferenciadas. Com um volume de dados muito grande para a época, foi adotada uma solução com geração de base de dados especializada via triggers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The solution enabled tracking garbage collection trucks through georeferencing. Since the amount of data was too large in those days, we built a solution with a specialized database generation via triggers. </t>
   </si>
   <si>
@@ -2238,18 +2196,12 @@
     <t xml:space="preserve">Cálculo de Consumo y Portal del Cliente </t>
   </si>
   <si>
-    <t>Sistema de Cálculo de Consumo Individual, que realiza a medição de consumo de água e gás de forma individual entre as unidades de condomínios, tanto comerciais como residenciais, gerando economia de consumo (cada unidade paga seu consumo ao invés de uma divisão do total pelas unidades do condomínio) de forma mais transparente para os clientes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Individual Consumption Calculation System that individually meters the water and gas consumption in condominium units, both commercial and residential, resulting in savings for the consumer (each unit pays their own consumption, instead of dividing the total by condominium units) and a more transparent practice. </t>
   </si>
   <si>
     <t xml:space="preserve">Sistema de Cálculo de Consumo Individual que mide el consumo de agua y gas de manera individual de las unidades de un conjunto, sea comercial o residencial. Genera economía de consumo (cada unidad paga su consumo en lugar de una división del total por las unidades del conjunto) de una forma clara para los clientes. </t>
   </si>
   <si>
-    <t>Portal Cliente, que permite aos moradores pconsultarem seus dados de consumo do mês atual ou anteriores. Através do Portal o usuário pode configurar para receber seus extratos mensais de consumo por e-mail.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Customer Portal allows residents to check their consumption information either for current or previous months. Through the Portal the user can choose to receive their monthly consumption statements via e-mail. </t>
   </si>
   <si>
@@ -2325,9 +2277,6 @@
     <t xml:space="preserve">Sistema de Control de Guardería </t>
   </si>
   <si>
-    <t>O sistema tem como finalidade monitorar toda a movimentação de recém-nascidos pelas instalações da maternidade, desde sua saída do centro obstétrico até a saída do hospital, garantindo segurança e tranqüilidade aos pais, além de transparência e credibilidade ao Hospital.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system monitors each and every movement of newborn babies in the maternity facilities, since leaving the obstetric center, until leaving the hospital, thus ensuring safety and peace of mind to parents, besides transparency and credibility to the hospital. </t>
   </si>
   <si>
@@ -2362,9 +2311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema completo para la gestión de bufetes de abogados. Realiza el intercambio de informaciones entre empleados, departamentos y sucursales, además de la gestión de costes y gastos del bufete, de los clientes y de los procesos. </t>
-  </si>
-  <si>
-    <t>O projeto foi desenvolvido com o modelo Smart Client, ou seja, o ambiente gráfico foi conceitualmente baseado nos produtos Microsoft®. O acesso, a procura e interação com diversas informações são realizadas da mesma forma que o usuário já está acostumado a trabalhar.</t>
   </si>
   <si>
     <t xml:space="preserve">The project was developed based on the Smart Client model, i.e., the graphical environment was conceptually based on the Microsoft® products. Access, search, and interaction with different information are all conducted in the same way the user is already used to doing. 
@@ -2572,9 +2518,6 @@
     <t xml:space="preserve">Sistema SIRIUS (Planta de producción) </t>
   </si>
   <si>
-    <t>Sistema de controle de chão de fábrica criado para Kodak com o objetivo de diminuir o desperdício, aumentar a velocidade de produção e a qualidade dos produtos, além de diminuir os problemas operacionais da empresa.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plant floor control system developed for Kodak with the objective of reducing waste, increasing production speed and product quality, besides reducing operational problems. </t>
   </si>
   <si>
@@ -2596,9 +2539,6 @@
     <t xml:space="preserve">Sistema de Clipping </t>
   </si>
   <si>
-    <t>Sistema desenvolvido para o Grupo Pão de Açuar destinado ao controle (Pesquisa e Manutenção) de Clippings relativos à organização.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed for the Pão de Açúcar group, with the aim of controlling (Research &amp; Maintenance) press clippings related to the organization. </t>
   </si>
   <si>
@@ -2621,9 +2561,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema de Gestión de TV por Suscripción </t>
-  </si>
-  <si>
-    <t>Em 1998, após experiência de sucesso na NET, a PCA cria a primeira versão do CAPERE, que possuíia dentre os seus destaques:</t>
   </si>
   <si>
     <t xml:space="preserve">In 1998, after a successful experience with NET, PCA developed the first version of CAPERE which featured: </t>
@@ -4854,9 +4791,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONSULTORÍA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENVOLVIMENTO MOBILE </t>
   </si>
   <si>
     <t xml:space="preserve">MOBILE DEVELOPMENT </t>
@@ -5139,6 +5073,81 @@
   </si>
   <si>
     <t>_Layout</t>
+  </si>
+  <si>
+    <t>Projeto desenvolvido respeitando os padrões exigidos pelo cliente.</t>
+  </si>
+  <si>
+    <t>Portal desenvolvido sob a plataforma Adobe Experience Manager com o propósito de fornecer informações relevantes sobre gerenciamento de riscos de preços de mercadorias e, desta forma, auxiliar aos clientes da Cargill a comprar ou vender mercadorias.</t>
+  </si>
+  <si>
+    <t>Nova funcionalidade, incorporada ao Cotador Agents, que permite aos clientes assinarem as propostas através de reconhecimento facial.</t>
+  </si>
+  <si>
+    <t>A solução CAPERE, que hoje atende à diversos clientes, além de já ter sido integrada ao sistema PROTHEUS (TOTVS), possui agora novas funcionalidades que permitem a sua comunicação com o sistema SAP.</t>
+  </si>
+  <si>
+    <t>Mais um case de sucesso para um produto capaz de se integrar com as áreas operacionais das empresas, extraindo informações necessárias dos sistemas de apoio existentes (como bases de clientes e contratos) e cuidando das questões de faturamento e cobrança de forma automática, a partir da configuração de regras e parâmetros, de forma bastante flexível, consistente e adaptadas a cada segmento de negócio.</t>
+  </si>
+  <si>
+    <t>Prova de conceito utilizando blockchain, uma das tecnologias mais promissoras da atualidade. A aplicação agrega confidencialidade e segurança a processos de troca de documentação entre empresas através de implementações específicas para cada aspecto das transações. Garante, desta forma, que informações confidenciais não circulem por máquinas desautorizadas, mantendo um registro confiável de todos os processos realizados, associando-os a usuários autenticados com assinaturas digitais e criptografia de chave assimétrica, visando diminuir, ou até mesmo dispensar, a necessidade de autoridades burocráticas, como cartórios, para autenticação dos documentos.</t>
+  </si>
+  <si>
+    <t>O projeto consiste em enviar mensagens aos pagadores referentes às cobranças geradas a partir da plataforma da Ricevi ({0}). São notificações contendo boletos, alertas de proximidade de vencimento e cobranças vencidas disponibilizadas através de um novo canal: WhatsApp.</t>
+  </si>
+  <si>
+    <t>O aplicativo funciona independentemente de conexão com Internet.</t>
+  </si>
+  <si>
+    <t>Saiba mais em {0}!</t>
+  </si>
+  <si>
+    <t>Registro do estudo de viabilidade (servindo como referência ou base das despesas e das receitas projetadas inicialmente)</t>
+  </si>
+  <si>
+    <t>Acompanhamento de um fluxo de caixa diário, com uma "foto" das despesas e receitas incorridas e ainda a incorrer</t>
+  </si>
+  <si>
+    <t>Visão sintética de um plano de contas contendo despesas e receitas com a possibilidade de detalhamento (nível analítico)</t>
+  </si>
+  <si>
+    <t>Apresentação dos chamados "documentos comprobatórios" (contratos de compra e venda, notas fiscais de fornecedores, autorizações e comprovantes de pagamentos)</t>
+  </si>
+  <si>
+    <t>Apresentação de diversos indicadores financeiros relativos à performance do empreendimento</t>
+  </si>
+  <si>
+    <t>Criado em 2006, na época denominado Media DNA, o sistema de monitoramento de veiculação de comerciais, foi uma ferramenta importante para agências de publicidade, grandes anunciantes e empresas de mídia. Até aquele momento, esse tipo de monitoramento era feito de forma visual, com a gravação em vídeo dos comerciais e com auxílio de pessoas para identificação de inconsistências. A partir do Media DNA, todo esse processo passou a ser automatizado. Entre os desafios encontrados, estavam:</t>
+  </si>
+  <si>
+    <t>A solução permitia o acompanhamento dos caminhões coletores de lixo através de consultas georreferenciadas. Com um volume de dados muito grande para a época, foi adotada uma solução com geração de base de dados especializada via triggers.</t>
+  </si>
+  <si>
+    <t>Sistema de Cálculo de Consumo Individual, que realiza a medição de consumo de água e gás, de forma individual, entre as unidades de condomínios, tanto comerciais como residenciais, gerando economia de consumo (cada unidade paga seu consumo ao invés de uma divisão do total pelas unidades do condomínio) de forma mais transparente para os clientes.</t>
+  </si>
+  <si>
+    <t>Portal Cliente, que permite aos moradores consultarem seus dados de consumo do mês atual ou anteriores. Através do Portal, o usuário pode configurar para receber seus extratos mensais de consumo por e-mail.</t>
+  </si>
+  <si>
+    <t>O sistema tem como finalidade monitorar toda a movimentação de recém-nascidos pelas instalações da maternidade, desde sua saída do centro obstétrico até a saída do hospital, garantindo segurança e tranquilidade aos pais, além de transparência e credibilidade ao Hospital.</t>
+  </si>
+  <si>
+    <t>Com o sistema, é possível saber quantas vezes a criança saiu do berçário, quem a levou e a trouxe de volta. Ao ser acessado, ele apresenta um "mapa instantâneo" da posição de todos os recém-nascidos naquele momento, identificando, também, os que estão em trânsito pela maternidade. Ficou muito mais rápido e simples informar à família e visitantes a localização do bebê.</t>
+  </si>
+  <si>
+    <t>O projeto foi desenvolvido com o modelo Smart Client, ou seja, o ambiente gráfico foi conceitualmente baseado nos produtos Microsoft®. O acesso, a procura e a interação com diversas informações são realizadas da mesma forma que o usuário já está acostumado a trabalhar.</t>
+  </si>
+  <si>
+    <t>Sistema de controle de chão de fábrica criado para a Kodak com o objetivo de diminuir o desperdício, aumentar a velocidade de produção e a qualidade dos produtos, além de diminuir os problemas operacionais da empresa.</t>
+  </si>
+  <si>
+    <t>Sistema desenvolvido para o Grupo Pão de Açúcar destinado ao controle (Pesquisa e Manutenção) de Clippings relativos à organização.</t>
+  </si>
+  <si>
+    <t>Em 1998, após experiência de sucesso na NET, a PCA cria a primeira versão do CAPERE, que possuia dentre os seus destaques:</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO MÓVEL</t>
   </si>
 </sst>
 </file>
@@ -6008,10 +6017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A748D-1826-473F-ACB4-14770F0A0FEB}">
-  <dimension ref="A1:D696"/>
+  <dimension ref="A1:D697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D672" sqref="D672"/>
+    <sheetView tabSelected="1" topLeftCell="A668" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C679" sqref="C679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,13 +7298,13 @@
         <v>222</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>1664</v>
+        <v>1642</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>1665</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7905,7 +7914,7 @@
         <v>222</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>1666</v>
+        <v>1644</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>361</v>
@@ -8675,13 +8684,13 @@
         <v>491</v>
       </c>
       <c r="B190" s="65" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -8689,13 +8698,13 @@
         <v>491</v>
       </c>
       <c r="B191" s="65" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,13 +8712,13 @@
         <v>491</v>
       </c>
       <c r="B192" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -8717,13 +8726,13 @@
         <v>491</v>
       </c>
       <c r="B193" s="65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,13 +8740,13 @@
         <v>491</v>
       </c>
       <c r="B194" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D194" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D194" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -8745,13 +8754,13 @@
         <v>491</v>
       </c>
       <c r="B195" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,13 +8782,13 @@
         <v>491</v>
       </c>
       <c r="B197" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8787,13 +8796,13 @@
         <v>491</v>
       </c>
       <c r="B198" s="65" t="s">
-        <v>521</v>
+        <v>1648</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -8801,13 +8810,13 @@
         <v>491</v>
       </c>
       <c r="B199" s="65" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,13 +8824,13 @@
         <v>491</v>
       </c>
       <c r="B200" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,13 +8838,13 @@
         <v>491</v>
       </c>
       <c r="B201" s="65" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,13 +8866,13 @@
         <v>491</v>
       </c>
       <c r="B203" s="65" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -8871,13 +8880,13 @@
         <v>491</v>
       </c>
       <c r="B204" s="65" t="s">
-        <v>532</v>
+        <v>1649</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -8885,13 +8894,13 @@
         <v>491</v>
       </c>
       <c r="B205" s="65" t="s">
-        <v>535</v>
+        <v>1650</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,13 +8908,13 @@
         <v>491</v>
       </c>
       <c r="B206" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -8927,13 +8936,13 @@
         <v>491</v>
       </c>
       <c r="B208" s="65" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -8941,13 +8950,13 @@
         <v>491</v>
       </c>
       <c r="B209" s="65" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8955,13 +8964,13 @@
         <v>491</v>
       </c>
       <c r="B210" s="65" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -8969,13 +8978,13 @@
         <v>491</v>
       </c>
       <c r="B211" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -8997,13 +9006,13 @@
         <v>491</v>
       </c>
       <c r="B213" s="65" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -9011,13 +9020,13 @@
         <v>491</v>
       </c>
       <c r="B214" s="65" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -9025,13 +9034,13 @@
         <v>491</v>
       </c>
       <c r="B215" s="65" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -9039,13 +9048,13 @@
         <v>491</v>
       </c>
       <c r="B216" s="65" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -9056,10 +9065,10 @@
         <v>5</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -9081,13 +9090,13 @@
         <v>491</v>
       </c>
       <c r="B219" s="65" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -9095,13 +9104,13 @@
         <v>491</v>
       </c>
       <c r="B220" s="65" t="s">
-        <v>562</v>
+        <v>1651</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -9109,13 +9118,13 @@
         <v>491</v>
       </c>
       <c r="B221" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -9137,13 +9146,13 @@
         <v>491</v>
       </c>
       <c r="B223" s="65" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -9151,13 +9160,13 @@
         <v>491</v>
       </c>
       <c r="B224" s="65" t="s">
-        <v>568</v>
+        <v>1652</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,13 +9174,13 @@
         <v>491</v>
       </c>
       <c r="B225" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -9193,13 +9202,13 @@
         <v>491</v>
       </c>
       <c r="B227" s="65" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9207,13 +9216,13 @@
         <v>491</v>
       </c>
       <c r="B228" s="65" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9221,13 +9230,13 @@
         <v>491</v>
       </c>
       <c r="B229" s="65" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9235,13 +9244,13 @@
         <v>491</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>580</v>
+        <v>1653</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -9249,13 +9258,13 @@
         <v>491</v>
       </c>
       <c r="B231" s="65" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -9277,13 +9286,13 @@
         <v>491</v>
       </c>
       <c r="B233" s="65" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9291,13 +9300,13 @@
         <v>491</v>
       </c>
       <c r="B234" s="65" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -9305,13 +9314,13 @@
         <v>491</v>
       </c>
       <c r="B235" s="65" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,13 +9328,13 @@
         <v>491</v>
       </c>
       <c r="B236" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D236" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C236" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D236" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,13 +9342,13 @@
         <v>491</v>
       </c>
       <c r="B237" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -9361,13 +9370,13 @@
         <v>491</v>
       </c>
       <c r="B239" s="65" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9375,13 +9384,13 @@
         <v>491</v>
       </c>
       <c r="B240" s="65" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -9389,13 +9398,13 @@
         <v>491</v>
       </c>
       <c r="B241" s="65" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9403,13 +9412,13 @@
         <v>491</v>
       </c>
       <c r="B242" s="65" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9417,13 +9426,13 @@
         <v>491</v>
       </c>
       <c r="B243" s="65" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9431,13 +9440,13 @@
         <v>491</v>
       </c>
       <c r="B244" s="65" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9445,13 +9454,13 @@
         <v>491</v>
       </c>
       <c r="B245" s="65" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9459,13 +9468,13 @@
         <v>491</v>
       </c>
       <c r="B246" s="65" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -9473,13 +9482,13 @@
         <v>491</v>
       </c>
       <c r="B247" s="65" t="s">
-        <v>619</v>
+        <v>1654</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,13 +9496,13 @@
         <v>491</v>
       </c>
       <c r="B248" s="80" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -9515,13 +9524,13 @@
         <v>491</v>
       </c>
       <c r="B250" s="65" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9529,13 +9538,13 @@
         <v>491</v>
       </c>
       <c r="B251" s="65" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -9543,13 +9552,13 @@
         <v>491</v>
       </c>
       <c r="B252" s="65" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -9557,13 +9566,13 @@
         <v>491</v>
       </c>
       <c r="B253" s="65" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -9571,13 +9580,13 @@
         <v>491</v>
       </c>
       <c r="B254" s="65" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -9585,13 +9594,13 @@
         <v>491</v>
       </c>
       <c r="B255" s="65" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -9599,13 +9608,13 @@
         <v>491</v>
       </c>
       <c r="B256" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D256" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C256" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D256" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -9613,13 +9622,13 @@
         <v>491</v>
       </c>
       <c r="B257" s="65" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,13 +9650,13 @@
         <v>491</v>
       </c>
       <c r="B259" s="65" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -9655,13 +9664,13 @@
         <v>491</v>
       </c>
       <c r="B260" s="65" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -9669,13 +9678,13 @@
         <v>491</v>
       </c>
       <c r="B261" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D261" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C261" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D261" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -9683,13 +9692,13 @@
         <v>491</v>
       </c>
       <c r="B262" s="65" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -9711,13 +9720,13 @@
         <v>491</v>
       </c>
       <c r="B264" s="65" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -9725,13 +9734,13 @@
         <v>491</v>
       </c>
       <c r="B265" s="65" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -9739,13 +9748,13 @@
         <v>491</v>
       </c>
       <c r="B266" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D266" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C266" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D266" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -9756,10 +9765,10 @@
         <v>5</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -9781,13 +9790,13 @@
         <v>491</v>
       </c>
       <c r="B269" s="65" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9795,13 +9804,13 @@
         <v>491</v>
       </c>
       <c r="B270" s="65" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9809,13 +9818,13 @@
         <v>491</v>
       </c>
       <c r="B271" s="65" t="s">
-        <v>662</v>
+        <v>1655</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9823,13 +9832,13 @@
         <v>491</v>
       </c>
       <c r="B272" s="65" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9837,13 +9846,13 @@
         <v>491</v>
       </c>
       <c r="B273" s="65" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9851,13 +9860,13 @@
         <v>491</v>
       </c>
       <c r="B274" s="65" t="s">
-        <v>671</v>
+        <v>1657</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9865,13 +9874,13 @@
         <v>491</v>
       </c>
       <c r="B275" s="65" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9879,13 +9888,13 @@
         <v>491</v>
       </c>
       <c r="B276" s="65" t="s">
-        <v>677</v>
+        <v>1659</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9893,13 +9902,13 @@
         <v>491</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -9907,13 +9916,13 @@
         <v>491</v>
       </c>
       <c r="B278" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D278" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C278" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D278" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -9921,13 +9930,13 @@
         <v>491</v>
       </c>
       <c r="B279" s="65" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -9949,13 +9958,13 @@
         <v>491</v>
       </c>
       <c r="B281" s="65" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9963,13 +9972,13 @@
         <v>491</v>
       </c>
       <c r="B282" s="82" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,13 +9986,13 @@
         <v>491</v>
       </c>
       <c r="B283" s="65" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9991,13 +10000,13 @@
         <v>491</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10005,13 +10014,13 @@
         <v>491</v>
       </c>
       <c r="B285" s="65" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10019,13 +10028,13 @@
         <v>491</v>
       </c>
       <c r="B286" s="65" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -10033,13 +10042,13 @@
         <v>491</v>
       </c>
       <c r="B287" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D287" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C287" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D287" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -10047,13 +10056,13 @@
         <v>491</v>
       </c>
       <c r="B288" s="65" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -10075,13 +10084,13 @@
         <v>491</v>
       </c>
       <c r="B290" s="65" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -10089,13 +10098,13 @@
         <v>491</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>707</v>
+        <v>1660</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10103,13 +10112,13 @@
         <v>491</v>
       </c>
       <c r="B292" s="65" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10117,13 +10126,13 @@
         <v>491</v>
       </c>
       <c r="B293" s="65" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -10131,13 +10140,13 @@
         <v>491</v>
       </c>
       <c r="B294" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D294" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C294" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -10145,13 +10154,13 @@
         <v>491</v>
       </c>
       <c r="B295" s="65" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -10173,13 +10182,13 @@
         <v>491</v>
       </c>
       <c r="B297" s="65" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10187,13 +10196,13 @@
         <v>491</v>
       </c>
       <c r="B298" s="65" t="s">
-        <v>721</v>
+        <v>1661</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -10201,13 +10210,13 @@
         <v>491</v>
       </c>
       <c r="B299" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D299" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C299" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -10215,13 +10224,13 @@
         <v>491</v>
       </c>
       <c r="B300" s="65" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -10243,13 +10252,13 @@
         <v>491</v>
       </c>
       <c r="B302" s="65" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -10257,13 +10266,13 @@
         <v>491</v>
       </c>
       <c r="B303" s="65" t="s">
-        <v>729</v>
+        <v>1662</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10271,13 +10280,13 @@
         <v>491</v>
       </c>
       <c r="B304" s="65" t="s">
-        <v>732</v>
+        <v>1663</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -10285,13 +10294,13 @@
         <v>491</v>
       </c>
       <c r="B305" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D305" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C305" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D305" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,13 +10308,13 @@
         <v>491</v>
       </c>
       <c r="B306" s="67" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -10327,13 +10336,13 @@
         <v>491</v>
       </c>
       <c r="B308" s="65" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -10341,13 +10350,13 @@
         <v>491</v>
       </c>
       <c r="B309" s="65" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -10355,13 +10364,13 @@
         <v>491</v>
       </c>
       <c r="B310" s="65" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -10369,13 +10378,13 @@
         <v>491</v>
       </c>
       <c r="B311" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C311" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D311" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C311" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -10383,13 +10392,13 @@
         <v>491</v>
       </c>
       <c r="B312" s="67" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -10403,7 +10412,7 @@
         <v>2006</v>
       </c>
       <c r="D313" s="35" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -10411,13 +10420,13 @@
         <v>491</v>
       </c>
       <c r="B314" s="65" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10425,13 +10434,13 @@
         <v>491</v>
       </c>
       <c r="B315" s="65" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -10439,13 +10448,13 @@
         <v>491</v>
       </c>
       <c r="B316" s="65" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -10467,13 +10476,13 @@
         <v>491</v>
       </c>
       <c r="B318" s="65" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10481,27 +10490,27 @@
         <v>491</v>
       </c>
       <c r="B319" s="65" t="s">
-        <v>758</v>
+        <v>1664</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A320" s="74" t="s">
         <v>491</v>
       </c>
       <c r="B320" s="67" t="s">
-        <v>758</v>
+        <v>1665</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -10509,13 +10518,13 @@
         <v>491</v>
       </c>
       <c r="B321" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C321" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D321" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C321" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D321" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -10523,13 +10532,13 @@
         <v>491</v>
       </c>
       <c r="B322" s="67" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -10551,13 +10560,13 @@
         <v>491</v>
       </c>
       <c r="B324" s="65" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10565,13 +10574,13 @@
         <v>491</v>
       </c>
       <c r="B325" s="65" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -10579,13 +10588,13 @@
         <v>491</v>
       </c>
       <c r="B326" s="65" t="s">
-        <v>771</v>
+        <v>1666</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -10593,13 +10602,13 @@
         <v>491</v>
       </c>
       <c r="B327" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C327" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D327" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C327" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D327" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -10607,13 +10616,13 @@
         <v>491</v>
       </c>
       <c r="B328" s="65" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -10621,13 +10630,13 @@
         <v>491</v>
       </c>
       <c r="B329" s="65" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -10649,13 +10658,13 @@
         <v>491</v>
       </c>
       <c r="B331" s="65" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10663,13 +10672,13 @@
         <v>491</v>
       </c>
       <c r="B332" s="65" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10677,13 +10686,13 @@
         <v>491</v>
       </c>
       <c r="B333" s="83" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -10691,13 +10700,13 @@
         <v>491</v>
       </c>
       <c r="B334" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="C334" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D334" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C334" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D334" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -10705,13 +10714,13 @@
         <v>491</v>
       </c>
       <c r="B335" s="67" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -10733,13 +10742,13 @@
         <v>491</v>
       </c>
       <c r="B337" s="65" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10747,13 +10756,13 @@
         <v>491</v>
       </c>
       <c r="B338" s="65" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -10761,13 +10770,13 @@
         <v>491</v>
       </c>
       <c r="B339" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C339" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D339" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C339" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D339" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -10775,13 +10784,13 @@
         <v>491</v>
       </c>
       <c r="B340" s="65" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -10803,13 +10812,13 @@
         <v>491</v>
       </c>
       <c r="B342" s="65" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10817,13 +10826,13 @@
         <v>491</v>
       </c>
       <c r="B343" s="65" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -10831,13 +10840,13 @@
         <v>491</v>
       </c>
       <c r="B344" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C344" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D344" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C344" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D344" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -10845,13 +10854,13 @@
         <v>491</v>
       </c>
       <c r="B345" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -10873,13 +10882,13 @@
         <v>491</v>
       </c>
       <c r="B347" s="65" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -10887,13 +10896,13 @@
         <v>491</v>
       </c>
       <c r="B348" s="65" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -10915,13 +10924,13 @@
         <v>491</v>
       </c>
       <c r="B350" s="65" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10929,13 +10938,13 @@
         <v>491</v>
       </c>
       <c r="B351" s="65" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -10943,13 +10952,13 @@
         <v>491</v>
       </c>
       <c r="B352" s="80" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="C352" s="33" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="D352" s="33" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -10971,13 +10980,13 @@
         <v>491</v>
       </c>
       <c r="B354" s="65" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -10985,13 +10994,13 @@
         <v>491</v>
       </c>
       <c r="B355" s="65" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -10999,13 +11008,13 @@
         <v>491</v>
       </c>
       <c r="B356" s="65" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -11013,13 +11022,13 @@
         <v>491</v>
       </c>
       <c r="B357" s="65" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,13 +11036,13 @@
         <v>491</v>
       </c>
       <c r="B358" s="65" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -11041,13 +11050,13 @@
         <v>491</v>
       </c>
       <c r="B359" s="65" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -11055,13 +11064,13 @@
         <v>491</v>
       </c>
       <c r="B360" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C360" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D360" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C360" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D360" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -11069,13 +11078,13 @@
         <v>491</v>
       </c>
       <c r="B361" s="65" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -11097,13 +11106,13 @@
         <v>491</v>
       </c>
       <c r="B363" s="65" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -11111,13 +11120,13 @@
         <v>491</v>
       </c>
       <c r="B364" s="65" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -11139,13 +11148,13 @@
         <v>491</v>
       </c>
       <c r="B366" s="65" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11153,13 +11162,13 @@
         <v>491</v>
       </c>
       <c r="B367" s="65" t="s">
-        <v>840</v>
+        <v>1667</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -11167,13 +11176,13 @@
         <v>491</v>
       </c>
       <c r="B368" s="65" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -11195,13 +11204,13 @@
         <v>491</v>
       </c>
       <c r="B370" s="65" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -11209,13 +11218,13 @@
         <v>491</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>848</v>
+        <v>1668</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -11223,13 +11232,13 @@
         <v>491</v>
       </c>
       <c r="B372" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C372" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D372" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C372" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D372" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -11237,13 +11246,13 @@
         <v>491</v>
       </c>
       <c r="B373" s="65" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -11265,13 +11274,13 @@
         <v>491</v>
       </c>
       <c r="B375" s="65" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -11279,13 +11288,13 @@
         <v>491</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>857</v>
+        <v>1669</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -11293,13 +11302,13 @@
         <v>491</v>
       </c>
       <c r="B377" s="65" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -11307,13 +11316,13 @@
         <v>491</v>
       </c>
       <c r="B378" s="65" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -11321,13 +11330,13 @@
         <v>491</v>
       </c>
       <c r="B379" s="65" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -11335,13 +11344,13 @@
         <v>491</v>
       </c>
       <c r="B380" s="65" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -11349,13 +11358,13 @@
         <v>491</v>
       </c>
       <c r="B381" s="65" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -11363,13 +11372,13 @@
         <v>491</v>
       </c>
       <c r="B382" s="65" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -11377,13 +11386,13 @@
         <v>491</v>
       </c>
       <c r="B383" s="65" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -11391,13 +11400,13 @@
         <v>491</v>
       </c>
       <c r="B384" s="65" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -11405,13 +11414,13 @@
         <v>491</v>
       </c>
       <c r="B385" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C385" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D385" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C385" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D385" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -11419,13 +11428,13 @@
         <v>491</v>
       </c>
       <c r="B386" s="65" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -11447,13 +11456,13 @@
         <v>491</v>
       </c>
       <c r="B388" s="65" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -11461,13 +11470,13 @@
         <v>491</v>
       </c>
       <c r="B389" s="65" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -11475,13 +11484,13 @@
         <v>491</v>
       </c>
       <c r="B390" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C390" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D390" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C390" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D390" s="24" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -11489,13 +11498,13 @@
         <v>491</v>
       </c>
       <c r="B391" s="65" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -11517,13 +11526,13 @@
         <v>491</v>
       </c>
       <c r="B393" s="65" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -11531,13 +11540,13 @@
         <v>491</v>
       </c>
       <c r="B394" s="65" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -11545,13 +11554,13 @@
         <v>491</v>
       </c>
       <c r="B395" s="65" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -11573,13 +11582,13 @@
         <v>491</v>
       </c>
       <c r="B397" s="65" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -11587,13 +11596,13 @@
         <v>491</v>
       </c>
       <c r="B398" s="65" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -11615,13 +11624,13 @@
         <v>491</v>
       </c>
       <c r="B400" s="65" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -11629,13 +11638,13 @@
         <v>491</v>
       </c>
       <c r="B401" s="65" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="D401" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -11657,13 +11666,13 @@
         <v>491</v>
       </c>
       <c r="B403" s="65" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -11671,13 +11680,13 @@
         <v>491</v>
       </c>
       <c r="B404" s="65" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -11699,13 +11708,13 @@
         <v>491</v>
       </c>
       <c r="B406" s="65" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -11713,13 +11722,13 @@
         <v>491</v>
       </c>
       <c r="B407" s="65" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -11741,13 +11750,13 @@
         <v>491</v>
       </c>
       <c r="B409" s="65" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -11755,13 +11764,13 @@
         <v>491</v>
       </c>
       <c r="B410" s="65" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -11769,13 +11778,13 @@
         <v>491</v>
       </c>
       <c r="B411" s="65" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -11794,21 +11803,21 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="65" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B413" s="65" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C413" s="65" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="D413" s="65" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B414" s="38" t="s">
         <v>226</v>
@@ -11822,301 +11831,301 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B415" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C415" s="38" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="D415" s="38" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C416" s="38" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="D416" s="38" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="65" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B417" s="65" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="C417" s="65" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D417" s="65" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A418" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="C418" s="38" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A419" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="C419" s="38" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="D419" s="38" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="C420" s="38" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="D420" s="38" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="65" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B421" s="65" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="C421" s="65" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="D421" s="65" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="B422" s="38" t="s">
         <v>928</v>
       </c>
-      <c r="B422" s="38" t="s">
-        <v>949</v>
-      </c>
       <c r="C422" s="38" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A423" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="65" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B424" s="65" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C424" s="65" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="D424" s="65" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="84" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B425" s="84" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="C425" s="84" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="D425" s="84" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="C426" s="38" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="D426" s="38" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A427" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="C427" s="38" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="D427" s="38" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="84" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B428" s="84" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="C428" s="84" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="D428" s="84" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A429" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C429" s="38" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="D429" s="38" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="84" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B430" s="84" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="C430" s="84" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="D430" s="84" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A431" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="C431" s="38" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A432" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="C432" s="38" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="D432" s="38" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="84" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B433" s="84" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="C433" s="84" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="D433" s="84" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A434" s="38" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="C434" s="38" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="D434" s="38" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="65" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B435" s="65" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C435" s="65" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="D435" s="65" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B436" s="38" t="s">
         <v>226</v>
@@ -12130,371 +12139,371 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B437" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C437" s="38" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="D437" s="38" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C438" s="38" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="D438" s="38" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="65" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B439" s="65" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C439" s="65" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="D439" s="65" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C440" s="38" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="D440" s="38" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="84" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B441" s="84" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="C441" s="84" t="s">
         <v>305</v>
       </c>
       <c r="D441" s="84" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A442" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="C442" s="38" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="D442" s="38" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A443" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C443" s="38" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="D443" s="38" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A444" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D444" s="38" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A445" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="B445" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="B445" s="38" t="s">
-        <v>1009</v>
-      </c>
       <c r="C445" s="38" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="D445" s="38" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="65" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B446" s="65" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C446" s="65" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="D446" s="65" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="84" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B447" s="84" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="C447" s="84" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C448" s="38" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="D448" s="38" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="C449" s="38" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="D449" s="38" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="C450" s="38" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="D450" s="38" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="65" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B451" s="65" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="C451" s="65" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="D451" s="65" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="84" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B452" s="84" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A453" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="C453" s="38" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="D453" s="38" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="C454" s="38" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="D454" s="38" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A455" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C455" s="38" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="D455" s="38" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="C456" s="38" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="D456" s="38" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="65" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B457" s="65" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C457" s="65" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="D457" s="65" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="84" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B458" s="84" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C458" s="84" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="D458" s="84" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A459" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="C459" s="38" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A460" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="D460" s="38" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A461" s="38" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="65" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B462" s="65" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="C462" s="65" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="D462" s="65" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B463" s="38" t="s">
         <v>226</v>
@@ -12508,231 +12517,231 @@
     </row>
     <row r="464" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B464" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C464" s="38" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="C465" s="38" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="D465" s="38" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="65" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B466" s="65" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="C466" s="65" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="D466" s="65" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A467" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="C467" s="38" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A468" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C468" s="38" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="D468" s="38" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A469" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="C469" s="38" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="D469" s="38" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="84" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B470" s="84" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="C470" s="84" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="D470" s="84" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="65" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B471" s="65" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="C471" s="65" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="D471" s="65" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A472" s="38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B472" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C472" s="38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D472" s="38" t="s">
         <v>1054</v>
-      </c>
-      <c r="B472" s="38" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C472" s="38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D472" s="38" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A473" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="C473" s="38" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A474" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C474" s="38" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="65" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B475" s="65" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C475" s="65" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="D475" s="65" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="84" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B476" s="84" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C476" s="84" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="D476" s="84" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A477" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="C477" s="38" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="D477" s="38" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="38" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="B478" s="38" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="C478" s="38" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="D478" s="38" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="65" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B479" s="65" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="C479" s="65" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="D479" s="65" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B480" s="38" t="s">
         <v>226</v>
@@ -12746,7 +12755,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B481" s="38" t="s">
         <v>250</v>
@@ -12760,91 +12769,91 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B482" s="38" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="C482" s="38" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="D482" s="38" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="26" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B483" s="26" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="C483" s="26" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A484" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B484" s="38" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="C484" s="38" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="D484" s="38" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B485" s="38" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="C485" s="38" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="D485" s="38" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="38" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B486" s="38" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="C486" s="38" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="D486" s="38" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="65" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="B487" s="65" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="C487" s="65" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="D487" s="65" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="38" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="B488" s="38" t="s">
         <v>226</v>
@@ -12858,623 +12867,623 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="38" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="B489" s="38" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C489" s="38" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="D489" s="38" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="84" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B490" s="84" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="C490" s="84" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="D490" s="84" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B491" s="65" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="C491" s="65" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="D491" s="65" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A492" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B492" s="38" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="C492" s="38" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="D492" s="38" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B493" s="38" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="C493" s="38" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="D493" s="38" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B494" s="38" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C494" s="38" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="D494" s="38" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B495" s="65" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="C495" s="65" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="D495" s="65" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="84" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B496" s="84" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="C496" s="84" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="D496" s="84" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B497" s="38" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="C497" s="38" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="D497" s="38" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="38" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B498" s="38" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C498" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D498" s="38" t="s">
         <v>1112</v>
-      </c>
-      <c r="B498" s="38" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C498" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D498" s="38" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B499" s="38" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="C499" s="38" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="D499" s="38" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B500" s="38" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="C500" s="38" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="D500" s="38" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B501" s="38" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="C501" s="38" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="D501" s="38" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B502" s="38" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="C502" s="38" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="D502" s="38" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B503" s="38" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="C503" s="38" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="D503" s="38" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B504" s="65" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="C504" s="65" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="D504" s="65" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B505" s="38" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="C505" s="38" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="D505" s="38" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B506" s="38" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="C506" s="38" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="D506" s="38" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B507" s="38" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="C507" s="38" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="D507" s="38" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B508" s="38" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="C508" s="38" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="D508" s="38" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B509" s="38" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="C509" s="38" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="D509" s="38" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B510" s="38" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="C510" s="38" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="D510" s="38" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B511" s="65" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="C511" s="65" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="D511" s="65" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B512" s="38" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="C512" s="38" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="D512" s="38" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B513" s="38" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="C513" s="38" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="D513" s="38" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B514" s="38" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="C514" s="38" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="D514" s="38" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B515" s="65" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="C515" s="65" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="D515" s="65" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B516" s="38" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="C516" s="38" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="D516" s="38" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B517" s="38" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="C517" s="38" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="D517" s="38" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B518" s="38" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="C518" s="38" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="D518" s="38" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B519" s="38" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="C519" s="38" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="D519" s="38" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B520" s="38" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="C520" s="38" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="D520" s="38" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B521" s="65" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="C521" s="65" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="D521" s="65" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="84" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B522" s="84" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="C522" s="84" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="D522" s="84" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A523" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B523" s="38" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="C523" s="38" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="D523" s="38" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A524" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B524" s="38" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="C524" s="38" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="D524" s="38" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B525" s="65" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="C525" s="65" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="D525" s="65" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B526" s="38" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="C526" s="38" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="D526" s="38" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B527" s="65" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="C527" s="65" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="D527" s="65" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B528" s="38" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="C528" s="38" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="D528" s="38" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B529" s="38" t="s">
-        <v>1224</v>
+        <v>1203</v>
       </c>
       <c r="C529" s="38" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
       <c r="D529" s="38" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="65" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B530" s="65" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="C530" s="65" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="D530" s="65" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B531" s="38" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="C531" s="38" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="D531" s="38" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B532" s="65" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="C532" s="65" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="D532" s="65" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B533" s="38" t="s">
         <v>226</v>
@@ -13488,875 +13497,875 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B534" s="38" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C534" s="38" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="D534" s="38" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B535" s="38" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="C535" s="38" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="D535" s="38" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B536" s="65" t="s">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="C536" s="65" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="D536" s="65" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B537" s="38" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="C537" s="38" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="D537" s="38" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B538" s="38" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="C538" s="38" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="D538" s="38" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B539" s="65" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="C539" s="65" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="D539" s="65" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="84" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B540" s="84" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="C540" s="84" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="D540" s="84" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B541" s="38" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="C541" s="38" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="D541" s="38" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B542" s="38" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="C542" s="38" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="D542" s="38" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B543" s="38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C543" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D543" s="38" t="s">
         <v>1233</v>
-      </c>
-      <c r="B543" s="38" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C543" s="38" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D543" s="38" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B544" s="65" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="C544" s="65" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="D544" s="65" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B545" s="38" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="C545" s="38" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="D545" s="38" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B546" s="38" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="C546" s="38" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="D546" s="38" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B547" s="38" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="C547" s="38" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="D547" s="38" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B548" s="38" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="C548" s="38" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="D548" s="38" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B549" s="38" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="C549" s="38" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="D549" s="38" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B550" s="65" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="C550" s="65" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="D550" s="65" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B551" s="38" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="C551" s="38" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="D551" s="38" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B552" s="38" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="C552" s="38" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="D552" s="38" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B553" s="38" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="C553" s="38" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="D553" s="38" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B554" s="65" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="C554" s="65" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="D554" s="65" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B555" s="38" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="C555" s="38" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="D555" s="38" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B556" s="38" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="C556" s="38" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="D556" s="38" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B557" s="38" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="C557" s="38" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="D557" s="38" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B558" s="38" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="C558" s="38" t="s">
-        <v>1288</v>
+        <v>1267</v>
       </c>
       <c r="D558" s="38" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B559" s="38" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="C559" s="38" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="D559" s="38" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B560" s="65" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="C560" s="65" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="D560" s="65" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B561" s="38" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="C561" s="38" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="D561" s="38" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B562" s="38" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="C562" s="38" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="D562" s="38" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B563" s="38" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="C563" s="38" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="D563" s="38" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B564" s="65" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C564" s="65" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="D564" s="65" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B565" s="38" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="C565" s="38" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="D565" s="38" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B566" s="38" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="C566" s="38" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="D566" s="38" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B567" s="38" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="C567" s="38" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="D567" s="38" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B568" s="38" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="C568" s="38" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="D568" s="38" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B569" s="65" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="C569" s="65" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="D569" s="65" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B570" s="38" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="C570" s="38" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="D570" s="38" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B571" s="38" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="C571" s="38" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="D571" s="38" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B572" s="38" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="C572" s="38" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="D572" s="38" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B573" s="65" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C573" s="65" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="D573" s="65" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="84" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B574" s="84" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="C574" s="84" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="D574" s="84" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A575" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B575" s="38" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="C575" s="38" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="D575" s="38" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A576" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B576" s="38" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="C576" s="38" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="D576" s="38" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B577" s="38" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="C577" s="38" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="D577" s="38" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B578" s="38" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="C578" s="38" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="D578" s="38" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B579" s="65" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="C579" s="65" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="D579" s="65" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B580" s="38" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="C580" s="38" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="D580" s="38" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A581" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B581" s="38" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="C581" s="38" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="D581" s="38" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B582" s="38" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="C582" s="38" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="D582" s="38" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B583" s="65" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="C583" s="65" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="D583" s="65" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A584" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B584" s="38" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="C584" s="38" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="D584" s="38" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A585" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B585" s="38" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="C585" s="38" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="D585" s="38" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A586" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B586" s="38" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="C586" s="38" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="D586" s="38" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A587" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B587" s="38" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="C587" s="38" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="D587" s="38" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B588" s="65" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="C588" s="65" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="D588" s="65" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A589" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B589" s="38" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="C589" s="38" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="D589" s="38" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A590" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B590" s="38" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="C590" s="38" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="D590" s="38" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="65" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B591" s="65" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="C591" s="65" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="D591" s="65" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A592" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B592" s="38" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="C592" s="38" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="D592" s="38" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A593" s="38" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="B593" s="38" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="C593" s="38" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="D593" s="38" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B594" s="65" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="C594" s="65" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="D594" s="65" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B595" s="38" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="C595" s="38" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="D595" s="38" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B596" s="38" t="s">
         <v>226</v>
@@ -14370,609 +14379,609 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B597" s="38" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C597" s="38" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="D597" s="38" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B598" s="38" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="C598" s="38" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="D598" s="38" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B599" s="65" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="C599" s="65" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="D599" s="65" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A600" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B600" s="38" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="C600" s="38" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="D600" s="38" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B601" s="38" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="C601" s="38" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="D601" s="38" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A602" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B602" s="38" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="C602" s="38" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="D602" s="38" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B603" s="65" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="C603" s="65" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="D603" s="65" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="85" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B604" s="85" t="s">
         <v>1391</v>
       </c>
-      <c r="B604" s="85" t="s">
-        <v>1412</v>
-      </c>
       <c r="C604" s="85" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="D604" s="85" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B605" s="38" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="C605" s="38" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="D605" s="38" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B606" s="38" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="C606" s="38" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="D606" s="38" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B607" s="38" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="C607" s="38" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="D607" s="38" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B608" s="38" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="C608" s="38" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="D608" s="38" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B609" s="38" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="C609" s="38" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="D609" s="38" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B610" s="38" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="C610" s="38" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="D610" s="38" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B611" s="38" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="C611" s="38" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="D611" s="38" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B612" s="38" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="C612" s="38" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="D612" s="38" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B613" s="38" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="C613" s="38" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="D613" s="38" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B614" s="38" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="C614" s="38" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="D614" s="38" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B615" s="38" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="C615" s="38" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="D615" s="38" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B616" s="38" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="C616" s="38" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="D616" s="38" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B617" s="38" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C617" s="38" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="D617" s="38" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B618" s="65" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C618" s="65" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="D618" s="65" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="85" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B619" s="85" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="C619" s="85" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="D619" s="85" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A620" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B620" s="38" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="C620" s="38" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="D620" s="38" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B621" s="65" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="C621" s="65" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="D621" s="65" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A622" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B622" s="38" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="C622" s="38" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="D622" s="38" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A623" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B623" s="38" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="C623" s="38" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="D623" s="38" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B624" s="65" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="C624" s="65" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="D624" s="65" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A625" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B625" s="38" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="C625" s="38" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="D625" s="38" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B626" s="38" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="C626" s="38" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="D626" s="38" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B627" s="65" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="C627" s="65" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="D627" s="65" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A628" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B628" s="38" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="C628" s="38" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="D628" s="38" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A629" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B629" s="38" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="C629" s="38" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="D629" s="38" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B630" s="65" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="C630" s="65" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="D630" s="65" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A631" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B631" s="38" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="C631" s="38" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="D631" s="38" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A632" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B632" s="38" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="C632" s="38" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="D632" s="38" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A633" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B633" s="38" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="C633" s="38" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="D633" s="38" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B634" s="65" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="C634" s="65" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="D634" s="65" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A635" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B635" s="38" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="C635" s="38" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="D635" s="38" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B636" s="38" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="C636" s="38" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="D636" s="38" t="s">
-        <v>1489</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="65" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B637" s="65" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="C637" s="65" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="D637" s="65" t="s">
-        <v>1491</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A638" s="38" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B638" s="38" t="s">
-        <v>1492</v>
+        <v>1471</v>
       </c>
       <c r="C638" s="38" t="s">
-        <v>1493</v>
+        <v>1472</v>
       </c>
       <c r="D638" s="38" t="s">
-        <v>1494</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B639" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C639" s="65" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D639" s="65" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B640" s="38" t="s">
         <v>226</v>
@@ -14986,464 +14995,464 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B641" s="38" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C641" s="38" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="D641" s="38" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B642" s="38" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C642" s="38" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="D642" s="38" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="65" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B643" s="65" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C643" s="65" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D643" s="65" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B644" s="38" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="C644" s="38" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="D644" s="38" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B645" s="38" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="C645" s="38" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="D645" s="38" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B646" s="38" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="C646" s="38" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="D646" s="38" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A647" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B647" s="38" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="C647" s="38" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="D647" s="38" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B648" s="38" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="C648" s="38" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="D648" s="38" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B649" s="38" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C649" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D649" s="38" t="s">
         <v>1495</v>
-      </c>
-      <c r="B649" s="38" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C649" s="38" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D649" s="38" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="38" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="B650" s="38" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="C650" s="38" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="D650" s="38" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="74" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B651" s="65" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="C651" s="21" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="D651" s="21" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="74" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B652" s="65" t="s">
-        <v>1524</v>
+        <v>1499</v>
+      </c>
+      <c r="B652" s="67" t="s">
+        <v>226</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1525</v>
+        <v>227</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A653" s="74" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B653" s="65" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C653" s="11" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D653" s="11" t="s">
-        <v>1529</v>
+        <v>1503</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
-        <v>1520</v>
+      <c r="A654" s="74" t="s">
+        <v>1499</v>
       </c>
       <c r="B654" s="65" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C654" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D654" s="1" t="s">
-        <v>1532</v>
+        <v>1506</v>
+      </c>
+      <c r="C654" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D654" s="11" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B655" s="65" t="s">
-        <v>1533</v>
+        <v>1509</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1534</v>
+        <v>1510</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1535</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="B656" s="65" t="s">
-        <v>1536</v>
+        <v>1512</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1537</v>
+        <v>1513</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1538</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A657" s="74" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B657" s="67" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C657" s="36" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D657" s="36" t="s">
-        <v>1542</v>
+      <c r="A657" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B657" s="65" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B658" s="67" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D658" s="1" t="s">
-        <v>1544</v>
+        <v>1519</v>
+      </c>
+      <c r="C658" s="36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D658" s="36" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B659" s="67" t="s">
-        <v>226</v>
+        <v>1519</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>227</v>
+        <v>1522</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>228</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B660" s="67" t="s">
-        <v>1545</v>
+        <v>226</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1546</v>
+        <v>227</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1547</v>
+        <v>228</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B661" s="67" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C661" s="21" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D661" s="21" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B662" s="67" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1527</v>
+      </c>
+      <c r="C662" s="21" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D662" s="21" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B663" s="67" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C663" s="21" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D663" s="21" t="s">
-        <v>1556</v>
+        <v>1530</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B664" s="67" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C664" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D664" s="1" t="s">
-        <v>1557</v>
+        <v>1533</v>
+      </c>
+      <c r="C664" s="21" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D664" s="21" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B665" s="67" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B666" s="67" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1560</v>
+        <v>1537</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1561</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="74" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B667" s="67" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C667" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B667" s="67" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C667" s="1" t="s">
-        <v>1562</v>
-      </c>
       <c r="D667" s="1" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B668" s="67" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C668" s="21" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D668" s="21" t="s">
-        <v>1563</v>
+        <v>1541</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B669" s="67" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C669" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D669" s="1" t="s">
-        <v>1566</v>
+        <v>1542</v>
+      </c>
+      <c r="C669" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D669" s="21" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B670" s="67" t="s">
-        <v>1567</v>
+        <v>1544</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1568</v>
+        <v>1544</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="74" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="B671" s="67" t="s">
-        <v>1570</v>
+        <v>1546</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="74" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B672" s="65" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C672" s="7" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D672" s="7" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+      <c r="B672" s="67" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A673" s="74" t="s">
-        <v>6</v>
+        <v>1645</v>
       </c>
       <c r="B673" s="65" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C673" s="11" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D673" s="11" t="s">
-        <v>1576</v>
+        <v>1550</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D673" s="7" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -15451,13 +15460,13 @@
         <v>6</v>
       </c>
       <c r="B674" s="65" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C674" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D674" s="1" t="s">
-        <v>1577</v>
+        <v>1553</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D674" s="11" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
@@ -15465,13 +15474,13 @@
         <v>6</v>
       </c>
       <c r="B675" s="65" t="s">
-        <v>1579</v>
+        <v>1556</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1581</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -15479,13 +15488,13 @@
         <v>6</v>
       </c>
       <c r="B676" s="65" t="s">
-        <v>1582</v>
+        <v>1558</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1583</v>
+        <v>1559</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1584</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -15493,13 +15502,13 @@
         <v>6</v>
       </c>
       <c r="B677" s="65" t="s">
-        <v>1585</v>
+        <v>1561</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1586</v>
+        <v>1562</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1585</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -15507,13 +15516,13 @@
         <v>6</v>
       </c>
       <c r="B678" s="65" t="s">
-        <v>1587</v>
+        <v>1564</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1541</v>
+        <v>1565</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1542</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -15521,13 +15530,13 @@
         <v>6</v>
       </c>
       <c r="B679" s="65" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C679" s="11" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D679" s="11" t="s">
-        <v>1590</v>
+        <v>1566</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -15535,13 +15544,13 @@
         <v>6</v>
       </c>
       <c r="B680" s="65" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C680" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D680" s="1" t="s">
-        <v>1593</v>
+        <v>1567</v>
+      </c>
+      <c r="C680" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D680" s="11" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -15549,13 +15558,13 @@
         <v>6</v>
       </c>
       <c r="B681" s="65" t="s">
-        <v>1594</v>
+        <v>1570</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1595</v>
+        <v>1571</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1596</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -15563,13 +15572,13 @@
         <v>6</v>
       </c>
       <c r="B682" s="65" t="s">
-        <v>1597</v>
+        <v>1573</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>1598</v>
+        <v>1574</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1599</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -15577,13 +15586,13 @@
         <v>6</v>
       </c>
       <c r="B683" s="65" t="s">
-        <v>1600</v>
+        <v>1670</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1601</v>
+        <v>1576</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1602</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -15591,13 +15600,13 @@
         <v>6</v>
       </c>
       <c r="B684" s="65" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C684" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D684" s="11" t="s">
-        <v>1603</v>
+        <v>1578</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -15605,41 +15614,41 @@
         <v>6</v>
       </c>
       <c r="B685" s="65" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C685" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>1604</v>
+        <v>1581</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D685" s="11" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B686" s="78" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C686" s="37" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D686" s="37" t="s">
-        <v>1606</v>
+      <c r="B686" s="65" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B687" s="65" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D687" s="1" t="s">
-        <v>1607</v>
+      <c r="B687" s="78" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C687" s="37" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D687" s="37" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -15647,13 +15656,13 @@
         <v>6</v>
       </c>
       <c r="B688" s="65" t="s">
-        <v>1557</v>
+        <v>1585</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1557</v>
+        <v>1586</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1557</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -15661,13 +15670,13 @@
         <v>6</v>
       </c>
       <c r="B689" s="65" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -15675,13 +15684,13 @@
         <v>6</v>
       </c>
       <c r="B690" s="65" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1560</v>
+        <v>1537</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1561</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -15689,13 +15698,13 @@
         <v>6</v>
       </c>
       <c r="B691" s="65" t="s">
-        <v>1609</v>
+        <v>1538</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1609</v>
+        <v>1539</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1609</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -15703,13 +15712,13 @@
         <v>6</v>
       </c>
       <c r="B692" s="65" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1611</v>
+        <v>1587</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -15717,13 +15726,13 @@
         <v>6</v>
       </c>
       <c r="B693" s="65" t="s">
-        <v>1612</v>
+        <v>1588</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1613</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -15731,13 +15740,13 @@
         <v>6</v>
       </c>
       <c r="B694" s="65" t="s">
-        <v>1567</v>
+        <v>1590</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1568</v>
+        <v>1590</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1569</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -15745,13 +15754,13 @@
         <v>6</v>
       </c>
       <c r="B695" s="65" t="s">
-        <v>1609</v>
+        <v>1546</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>1609</v>
+        <v>1547</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1609</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -15759,21 +15768,35 @@
         <v>6</v>
       </c>
       <c r="B696" s="65" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C696" s="18" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D696" s="18" t="s">
-        <v>1614</v>
+        <v>1587</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B697" s="65" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C697" s="18" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D697" s="18" t="s">
+        <v>1592</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D696" xr:uid="{4F2D3964-5831-494F-85C1-49483C7B5DEB}"/>
+  <autoFilter ref="A1:D697" xr:uid="{4F2D3964-5831-494F-85C1-49483C7B5DEB}"/>
   <hyperlinks>
-    <hyperlink ref="B686" r:id="rId1" xr:uid="{E7030FA5-923F-48DE-9F04-D5F950AF653B}"/>
-    <hyperlink ref="C686" r:id="rId2" xr:uid="{7DB644E5-75E4-48F9-BF47-2DB3848E3C65}"/>
-    <hyperlink ref="D686" r:id="rId3" xr:uid="{AF85FC4D-947E-4605-AB7C-18FA74047D9D}"/>
+    <hyperlink ref="B687" r:id="rId1" xr:uid="{E7030FA5-923F-48DE-9F04-D5F950AF653B}"/>
+    <hyperlink ref="C687" r:id="rId2" xr:uid="{7DB644E5-75E4-48F9-BF47-2DB3848E3C65}"/>
+    <hyperlink ref="D687" r:id="rId3" xr:uid="{AF85FC4D-947E-4605-AB7C-18FA74047D9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -15782,15 +15805,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C97AC7-EB8E-49B3-89C2-AC14812EC3C8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -15800,10 +15823,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15811,10 +15834,10 @@
         <v>222</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15834,7 +15857,29 @@
         <v>360</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1619</v>
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1597</v>
       </c>
     </row>
   </sheetData>
@@ -15864,189 +15909,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1629</v>
+        <v>1607</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1638</v>
+        <v>1616</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>1640</v>
+        <v>1618</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1641</v>
+        <v>1619</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1642</v>
+        <v>1620</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>1643</v>
+        <v>1621</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1644</v>
+        <v>1622</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>1645</v>
+        <v>1623</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>1646</v>
+        <v>1624</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>1647</v>
+        <v>1625</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1649</v>
+        <v>1627</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="55" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1653</v>
+        <v>1631</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>1655</v>
+        <v>1633</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>1656</v>
+        <v>1634</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1657</v>
+        <v>1635</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1658</v>
+        <v>1636</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>1659</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>1660</v>
+        <v>1638</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -16055,15 +16100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9DF02DCE75175419F94A2901D0E88D7" ma:contentTypeVersion="" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e587653262687c769d91de849a74cbc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f472cc23-2c7e-449b-8da0-655b40890e31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c6c573569c8ba2fc78db51190330c54" ns2:_="">
     <xsd:import namespace="f472cc23-2c7e-449b-8da0-655b40890e31"/>
@@ -16229,21 +16265,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8373-A75A-4A25-93A7-07706D422D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16261,7 +16298,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94684D59-9F6C-49F1-9C37-D717955DC416}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -16275,4 +16312,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Traducao_Ajustes.xlsx
+++ b/Traducao_Ajustes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCAGit\traducao-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius.vechiato\Desktop\Projects\PCASite\traducao-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21714D6A-F12A-45C7-A288-1768081853A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D885EB98-BA6C-4776-9F27-212231486312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13C5A9BC-BB4B-4582-92D1-4AEF74685F3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13C5A9BC-BB4B-4582-92D1-4AEF74685F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
@@ -1282,9 +1282,6 @@
     <t xml:space="preserve">Innovación </t>
   </si>
   <si>
-    <t>Alguns projetos desenvolvidos pela PCA.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some of the projects developed by PCA since our establishment </t>
   </si>
   <si>
@@ -1329,18 +1326,12 @@
 PROCESSING </t>
   </si>
   <si>
-    <t>As pessoas com conhecimento avançado do negócio de suas empresas criam regras específicas de cálculo e de forma independente da área técnica, regras estas utilizadas por exemplo em campanhas de vendas, incentivos e bonificações.</t>
-  </si>
-  <si>
     <t xml:space="preserve">People who have a deep knowledge of their company’s business can create specific rules for calculation, independently from the technical area; such rules can be used, for instance, in sales campaigns, incentives, and bonuses. </t>
   </si>
   <si>
     <t xml:space="preserve">Las personas que tienen un conocimiento avanzado de sus negocios crean reglas específicas de cálculo de una manera independiente de la forma del área técnica, estas reglas son utilizadas, por ejemplo, en campañas de ventas, incentivos y gratificaciones. </t>
   </si>
   <si>
-    <t>Com as regras criadas e configuradas, nosso sistema distribui o processamento da imensa quantidade de dados entre diversos computadores, diminuindo de forma signicativa o tempo para execução da tarefa e a disponibilização dos resultados.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Based on created and defined rules, our system distributes the processing of huge amounts of data among different computers, thus resulting in significantly decreased task execution and result obtention time. </t>
   </si>
   <si>
@@ -1350,9 +1341,6 @@
     <t>DISEÑO DE EXPERIENCIA DE USUARIO Y DISEÑO DE INTERFAZ DE USUARIO</t>
   </si>
   <si>
-    <t>Os meios pelos quais as pessoas hoje  interagem com os sistemas de informação são bastante diversos. Para não frustar e limitar o uso das soluções nas diversas plataformas que encontram-se à disposição, é fundamental que as aplicações sejam pensadas levando em conta a simplicidade e facilidade de uso, de forma que as pessoas sintam-se continuamente motivadas em utilizá-las. Em outras palavras, o visual deve ser rico e agradável, tornando o aprendizado intuitivo e rápido.</t>
-  </si>
-  <si>
     <t xml:space="preserve">People today interact through very different information systems media. In order to avoid frustration and limitation of the use of solutions on the different available platforms, it is important that applications are designed considering how simple and easy to use they are, so that people feel continually motivated to use them. In other words, the visual must be rich and pleasant, which makes learning intuitive and fast. </t>
   </si>
   <si>
@@ -1368,9 +1356,6 @@
     <t xml:space="preserve">RECONOCIMIENTO DE IMAGEN Y RECONOCIMIENTO DEL PUNTO DE VENTA </t>
   </si>
   <si>
-    <t>Tecnologia aplicada no reconhecimento de imagens, identificando por exemplo, produtos em uma prateleira (remédios em uma farmácia e produtos em geral em um supermercado) e dando o posicionamnto preciso e detalhado dos mesmos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technology applied in image recognition, which identifies, for instance, products on a shelf (medicines in a pharmacy, general products in a supermarket) and provides their precise and detailed position. </t>
   </si>
   <si>
@@ -1404,9 +1389,6 @@
     <t xml:space="preserve">MEDICIÓN Y FACTURACIÓN DE CUENTAS POR DISPOSITIVOS MÓVILES </t>
   </si>
   <si>
-    <t>Sistema OnSite Billing desenvolvido com o objetivo de possibilitar a leitura e emissão simultânea de contas de consumo, tais como água, luz e gás. A emissão da conta é realizada através de impressoras móveis conectadas a dispositivos como smartphones.</t>
-  </si>
-  <si>
     <t xml:space="preserve">On-site billing system developed for the simultaneous metering and billing of utilities, such as water, electricity, and gas. The bill is printed by a mobile printer connected to devices, e.g., a smartphone. </t>
   </si>
   <si>
@@ -1422,16 +1404,10 @@
     <t xml:space="preserve">FACTURACIÓN Y COBRO, GESTIÓN DE RECIBOS, CONCILIACIÓN BANCARIA, CONTABILIDAD GERENCIAL </t>
   </si>
   <si>
-    <t>Ao longo dos anos a PCA tornou-se especialista em desenvolvimento de sistemas capazes de dar o suporte necessário para uma melhor e mais eficiente gestão das áreas financeira e contábil, em empresas dos mais variados portes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Over the years PCA has specialized in developing systems that provide valuable support to an enhanced and highly efficient financial and accounting management for companies of the most varied sizes. </t>
   </si>
   <si>
     <t xml:space="preserve">A lo largo de los años, PCA se transformó en una empresa experta en el desarrollo de sistemas con la capacidad de dar el soporte necesario para una mejor y más eficiente gestión financiera y contable de empresas de diferentes tamaños. </t>
-  </si>
-  <si>
-    <t>Dentre os principais deafios encontrados estão: convivência com sistemas e bases de dados já existentes, integração com os mais diversos ERPs do mercado, faturamento e cobrança em valores e volumes expressivos e com grande velocidade de processamento, integração com a rede bancária (geração, leitura e processamento de arquivos CNAB) e mapeamento das atividades operacionais da empresa, possibitando a criação de uma contabilidade gerencial em tempo real (com visão do passado, presente e futuro).</t>
   </si>
   <si>
     <t xml:space="preserve">Some of the main identified challenges are the coexistence with already existing systems and databases; integration with the most diverse ERPs in the market; billing of big amounts and expressive volumes at a high processing speed; integration with bank networks (generating, reading, and processing CNAB files); mapping the company’s operational activities which enables managerial accounting in real time (with past, present, and future overviews). </t>
@@ -5148,6 +5124,30 @@
   </si>
   <si>
     <t>DESENVOLVIMENTO MÓVEL</t>
+  </si>
+  <si>
+    <t>Alguns projetos inovadores desenvolvidos pela PCA.</t>
+  </si>
+  <si>
+    <t>Com as regras criadas e configuradas, nosso sistema distribui o processamento da imensa quantidade de dados entre diversos computadores, diminuindo de forma significativa o tempo para execução da tarefa e a disponibilização dos resultados.</t>
+  </si>
+  <si>
+    <t>Os meios pelos quais as pessoas hoje interagem com os sistemas de informação são bastante diversos. Para não frustrar e limitar o uso das soluções nas diversas plataformas que encontram-se à disposição, é fundamental que as aplicações sejam pensadas levando em conta a simplicidade e a facilidade de uso, de forma que as pessoas sintam-se continuamente motivadas em utilizá-las. Em outras palavras, o visual deve ser rico e agradável, tornando o aprendizado intuitivo e rápido.</t>
+  </si>
+  <si>
+    <t>Tecnologia aplicada no reconhecimento de imagens, identificando, por exemplo, produtos em uma prateleira (remédios em uma farmácia e produtos em geral em um supermercado) e dando o posicionamnto preciso e detalhado dos mesmos.</t>
+  </si>
+  <si>
+    <t>Sistema OnSite Billing desenvolvido com o objetivo de possibilitar a leitura e a emissão simultânea de contas de consumo, tais como água, luz e gás. A emissão da conta é realizada através de impressoras móveis conectadas a dispositivos como smartphones.</t>
+  </si>
+  <si>
+    <t>Ao longo dos anos, a PCA tornou-se especialista em desenvolvimento de sistemas capazes de dar o suporte necessário para uma melhor e mais eficiente gestão das áreas financeira e contábil, em empresas dos mais variados portes.</t>
+  </si>
+  <si>
+    <t>Dentre os principais desafios encontrados estão: convivência com sistemas e bases de dados já existentes, integração com os mais diversos ERPs do mercado, faturamento e cobrança em valores e volumes expressivos e com grande velocidade de processamento, integração com a rede bancária (geração, leitura e processamento de arquivos CNAB) e mapeamento das atividades operacionais da empresa, possibitando a criação de uma contabilidade gerencial em tempo real (com visão do passado, presente e futuro).</t>
+  </si>
+  <si>
+    <t>As pessoas com conhecimento avançado do negócio de suas empresas criam regras específicas de cálculo e de forma independente da área técnica, regras estas utilizadas, por exemplo, em campanhas de vendas, incentivos e bonificações.</t>
   </si>
 </sst>
 </file>
@@ -6019,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A748D-1826-473F-ACB4-14770F0A0FEB}">
   <dimension ref="A1:D697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7298,13 +7298,13 @@
         <v>222</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7914,7 +7914,7 @@
         <v>222</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>361</v>
@@ -8152,13 +8152,13 @@
         <v>408</v>
       </c>
       <c r="B152" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,10 +8169,10 @@
         <v>226</v>
       </c>
       <c r="C153" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,10 +8197,10 @@
         <v>44</v>
       </c>
       <c r="C155" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -8208,13 +8208,13 @@
         <v>408</v>
       </c>
       <c r="B156" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="C156" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="D156" s="30" t="s">
         <v>420</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -8222,13 +8222,13 @@
         <v>408</v>
       </c>
       <c r="B157" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="C157" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="D157" s="30" t="s">
         <v>423</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -8236,10 +8236,10 @@
         <v>408</v>
       </c>
       <c r="B158" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="C158" s="32" t="s">
         <v>425</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>426</v>
       </c>
       <c r="D158" s="31" t="s">
         <v>56</v>
@@ -8250,13 +8250,13 @@
         <v>408</v>
       </c>
       <c r="B159" s="65" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>427</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -8264,13 +8264,13 @@
         <v>408</v>
       </c>
       <c r="B160" s="65" t="s">
-        <v>430</v>
+        <v>1664</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -8284,7 +8284,7 @@
         <v>67</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -8292,13 +8292,13 @@
         <v>408</v>
       </c>
       <c r="B162" s="65" t="s">
-        <v>434</v>
+        <v>1665</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -8306,13 +8306,13 @@
         <v>408</v>
       </c>
       <c r="B163" s="65" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -8320,13 +8320,13 @@
         <v>408</v>
       </c>
       <c r="B164" s="65" t="s">
-        <v>440</v>
+        <v>1666</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -8334,13 +8334,13 @@
         <v>408</v>
       </c>
       <c r="B165" s="65" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8348,13 +8348,13 @@
         <v>408</v>
       </c>
       <c r="B166" s="65" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -8362,13 +8362,13 @@
         <v>408</v>
       </c>
       <c r="B167" s="65" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -8376,13 +8376,13 @@
         <v>408</v>
       </c>
       <c r="B168" s="65" t="s">
-        <v>452</v>
+        <v>1667</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -8390,13 +8390,13 @@
         <v>408</v>
       </c>
       <c r="B169" s="65" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -8404,13 +8404,13 @@
         <v>408</v>
       </c>
       <c r="B170" s="65" t="s">
-        <v>458</v>
+        <v>1668</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -8418,13 +8418,13 @@
         <v>408</v>
       </c>
       <c r="B171" s="65" t="s">
-        <v>461</v>
+        <v>1669</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>408</v>
       </c>
       <c r="B172" s="65" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>120</v>
@@ -8446,13 +8446,13 @@
         <v>408</v>
       </c>
       <c r="B173" s="65" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -8460,13 +8460,13 @@
         <v>408</v>
       </c>
       <c r="B174" s="65" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -8474,13 +8474,13 @@
         <v>408</v>
       </c>
       <c r="B175" s="65" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -8488,13 +8488,13 @@
         <v>408</v>
       </c>
       <c r="B176" s="65" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,13 +8502,13 @@
         <v>408</v>
       </c>
       <c r="B177" s="65" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -8516,13 +8516,13 @@
         <v>408</v>
       </c>
       <c r="B178" s="65" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -8530,13 +8530,13 @@
         <v>408</v>
       </c>
       <c r="B179" s="65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -8544,13 +8544,13 @@
         <v>408</v>
       </c>
       <c r="B180" s="65" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -8558,13 +8558,13 @@
         <v>408</v>
       </c>
       <c r="B181" s="65" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -8572,18 +8572,18 @@
         <v>408</v>
       </c>
       <c r="B182" s="65" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B183" s="65" t="s">
         <v>144</v>
@@ -8597,63 +8597,63 @@
     </row>
     <row r="184" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B184" s="67" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B185" s="67" t="s">
         <v>226</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B186" s="67" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B187" s="67" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B188" s="81">
         <v>2020</v>
@@ -8667,105 +8667,105 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="B189" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="B189" s="65" t="s">
-        <v>499</v>
-      </c>
       <c r="C189" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B190" s="65" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B191" s="65" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B192" s="65" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B193" s="65" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B194" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B195" s="65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B196" s="80">
         <v>2020</v>
@@ -8779,77 +8779,77 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B197" s="65" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B198" s="65" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B199" s="65" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B200" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B201" s="65" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B202" s="80">
         <v>2020</v>
@@ -8863,63 +8863,63 @@
     </row>
     <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B203" s="65" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B204" s="65" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B205" s="65" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B206" s="65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B207" s="80">
         <v>2019</v>
@@ -8933,63 +8933,63 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B208" s="65" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A209" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B209" s="65" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B210" s="65" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B211" s="65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B212" s="80">
         <v>2018</v>
@@ -9003,77 +9003,77 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B213" s="65" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A214" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B214" s="65" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B215" s="65" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B216" s="65" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B217" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B218" s="80">
         <v>2018</v>
@@ -9087,49 +9087,49 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B219" s="65" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A220" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B220" s="65" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B221" s="65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B222" s="80">
         <v>2018</v>
@@ -9143,49 +9143,49 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B223" s="65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A224" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B224" s="65" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B225" s="65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B226" s="80">
         <v>2018</v>
@@ -9199,77 +9199,77 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B227" s="65" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B228" s="65" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B229" s="65" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B231" s="65" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B232" s="80">
         <v>2017</v>
@@ -9283,77 +9283,77 @@
     </row>
     <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B233" s="65" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B234" s="65" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B235" s="65" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B236" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B237" s="65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B238" s="80">
         <v>2017</v>
@@ -9367,147 +9367,147 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B239" s="65" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B240" s="65" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B241" s="65" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B242" s="65" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B243" s="65" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B244" s="65" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B245" s="65" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B246" s="65" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B247" s="65" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B248" s="80" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B249" s="80">
         <v>2016</v>
@@ -9521,119 +9521,119 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B250" s="65" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B251" s="65" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B252" s="65" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B253" s="65" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B254" s="65" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B255" s="65" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B256" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B257" s="65" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B258" s="80">
         <v>2013</v>
@@ -9647,63 +9647,63 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B259" s="65" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B260" s="65" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B261" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B262" s="65" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B263" s="80">
         <v>2013</v>
@@ -9717,63 +9717,63 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B264" s="65" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A265" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B265" s="65" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B266" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B267" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B268" s="80">
         <v>2011</v>
@@ -9787,161 +9787,161 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B269" s="65" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A270" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B270" s="65" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B271" s="65" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B272" s="65" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B273" s="65" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B274" s="65" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B275" s="65" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B276" s="65" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B277" s="65" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B278" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B279" s="65" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B280" s="80">
         <v>2009</v>
@@ -9955,119 +9955,119 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B281" s="65" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B282" s="82" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B283" s="65" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B284" s="65" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B285" s="65" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B286" s="65" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B288" s="65" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B289" s="80">
         <v>2008</v>
@@ -10081,91 +10081,91 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B290" s="65" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A291" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B292" s="65" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B293" s="65" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B294" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B295" s="65" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B296" s="80">
         <v>2008</v>
@@ -10179,63 +10179,63 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B297" s="65" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B298" s="65" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B299" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B300" s="65" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B301" s="80">
         <v>2007</v>
@@ -10249,77 +10249,77 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B302" s="65" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A303" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B303" s="65" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B304" s="65" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B305" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C305" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B306" s="67" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B307" s="81">
         <v>2006</v>
@@ -10333,77 +10333,77 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B308" s="65" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A309" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B309" s="65" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A310" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B310" s="65" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B311" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D311" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B312" s="67" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B313" s="81">
         <v>2006</v>
@@ -10412,54 +10412,54 @@
         <v>2006</v>
       </c>
       <c r="D313" s="35" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B314" s="65" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B315" s="65" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B316" s="65" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B317" s="80">
         <v>2005</v>
@@ -10473,77 +10473,77 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B318" s="65" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A319" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B319" s="65" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A320" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B320" s="67" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B321" s="67" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C321" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D321" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B322" s="67" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B323" s="81">
         <v>2005</v>
@@ -10557,91 +10557,91 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B324" s="65" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A325" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B325" s="65" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A326" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B326" s="65" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B327" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C327" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D327" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B328" s="65" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B329" s="65" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B330" s="80">
         <v>2005</v>
@@ -10655,77 +10655,77 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B331" s="65" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B332" s="65" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A333" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B333" s="83" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B334" s="83" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C334" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B335" s="67" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B336" s="81">
         <v>2003</v>
@@ -10739,63 +10739,63 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B337" s="65" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B338" s="65" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B340" s="65" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B341" s="80">
         <v>2003</v>
@@ -10809,63 +10809,63 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B342" s="65" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B343" s="65" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B344" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C344" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D344" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B345" s="65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B346" s="80">
         <v>2002</v>
@@ -10879,35 +10879,35 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B347" s="65" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B348" s="65" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B349" s="80">
         <v>2001</v>
@@ -10921,49 +10921,49 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B350" s="65" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B351" s="65" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B352" s="80" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C352" s="33" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D352" s="33" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B353" s="80">
         <v>2000</v>
@@ -10977,119 +10977,119 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B354" s="65" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B355" s="65" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B356" s="65" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B357" s="65" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B358" s="65" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B359" s="65" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B360" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C360" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B361" s="65" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B362" s="80">
         <v>1999</v>
@@ -11103,35 +11103,35 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B363" s="65" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B364" s="65" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B365" s="80">
         <v>1999</v>
@@ -11145,49 +11145,49 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B366" s="65" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A367" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B367" s="65" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B368" s="65" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B369" s="80">
         <v>1999</v>
@@ -11201,63 +11201,63 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B370" s="65" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B372" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C372" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D372" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B373" s="65" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B374" s="80">
         <v>1998</v>
@@ -11271,175 +11271,175 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B375" s="65" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B377" s="65" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B378" s="65" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B379" s="65" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B380" s="65" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B381" s="65" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B382" s="65" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B383" s="65" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B384" s="65" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B385" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C385" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D385" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B386" s="65" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B387" s="80">
         <v>1997</v>
@@ -11453,63 +11453,63 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B388" s="65" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B389" s="65" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B390" s="65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C390" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D390" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B391" s="65" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B392" s="80">
         <v>1997</v>
@@ -11523,49 +11523,49 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B393" s="65" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A394" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B394" s="65" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B395" s="65" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B396" s="80">
         <v>1997</v>
@@ -11579,35 +11579,35 @@
     </row>
     <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B397" s="65" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B398" s="65" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B399" s="80">
         <v>1996</v>
@@ -11621,35 +11621,35 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B400" s="65" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B401" s="65" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D401" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B402" s="80">
         <v>1996</v>
@@ -11663,35 +11663,35 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B403" s="65" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B404" s="65" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B405" s="80">
         <v>1995</v>
@@ -11705,35 +11705,35 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B406" s="65" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B407" s="65" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B408" s="80">
         <v>1993</v>
@@ -11747,49 +11747,49 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B409" s="65" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B410" s="65" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B411" s="65" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="74" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B412" s="80">
         <v>1992</v>
@@ -11803,945 +11803,945 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="65" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B413" s="65" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C413" s="65" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D413" s="65" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B414" s="38" t="s">
         <v>226</v>
       </c>
       <c r="C414" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D414" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="D414" s="38" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B415" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C415" s="38" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D415" s="38" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C416" s="38" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D416" s="38" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="65" t="s">
+        <v>899</v>
+      </c>
+      <c r="B417" s="65" t="s">
+        <v>905</v>
+      </c>
+      <c r="C417" s="65" t="s">
+        <v>906</v>
+      </c>
+      <c r="D417" s="65" t="s">
         <v>907</v>
-      </c>
-      <c r="B417" s="65" t="s">
-        <v>913</v>
-      </c>
-      <c r="C417" s="65" t="s">
-        <v>914</v>
-      </c>
-      <c r="D417" s="65" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A418" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C418" s="38" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A419" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C419" s="38" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D419" s="38" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C420" s="38" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D420" s="38" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="65" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B421" s="65" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C421" s="65" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D421" s="65" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A423" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="65" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B424" s="65" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C424" s="65" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D424" s="65" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="84" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B425" s="84" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C425" s="84" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D425" s="84" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C426" s="38" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D426" s="38" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A427" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C427" s="38" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D427" s="38" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="84" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B428" s="84" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C428" s="84" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="D428" s="84" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A429" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C429" s="38" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D429" s="38" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="84" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B430" s="84" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="C430" s="84" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="D430" s="84" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A431" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C431" s="38" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A432" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C432" s="38" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D432" s="38" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="84" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B433" s="84" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C433" s="84" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="D433" s="84" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A434" s="38" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C434" s="38" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="D434" s="38" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B435" s="65" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C435" s="65" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D435" s="65" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B436" s="38" t="s">
         <v>226</v>
       </c>
       <c r="C436" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D436" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="D436" s="38" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B437" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C437" s="38" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D437" s="38" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C438" s="38" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="D438" s="38" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B439" s="65" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C439" s="65" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="D439" s="65" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="38" t="s">
+        <v>959</v>
+      </c>
+      <c r="B440" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C440" s="38" t="s">
         <v>967</v>
       </c>
-      <c r="B440" s="38" t="s">
-        <v>974</v>
-      </c>
-      <c r="C440" s="38" t="s">
-        <v>975</v>
-      </c>
       <c r="D440" s="38" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="84" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B441" s="84" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C441" s="84" t="s">
         <v>305</v>
       </c>
       <c r="D441" s="84" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A442" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="C442" s="38" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="D442" s="38" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A443" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="C443" s="38" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="D443" s="38" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A444" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D444" s="38" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A445" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C445" s="38" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D445" s="38" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B446" s="65" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="C446" s="65" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="D446" s="65" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="84" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B447" s="84" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C447" s="84" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C448" s="38" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="D448" s="38" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C449" s="38" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D449" s="38" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C450" s="38" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="D450" s="38" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B451" s="65" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C451" s="65" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D451" s="65" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="84" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B452" s="84" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A453" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C453" s="38" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D453" s="38" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="C454" s="38" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D454" s="38" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A455" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C455" s="38" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="D455" s="38" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="C456" s="38" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="D456" s="38" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B457" s="65" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C457" s="65" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D457" s="65" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="84" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B458" s="84" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C458" s="84" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D458" s="84" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A459" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C459" s="38" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A460" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="D460" s="38" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A461" s="38" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="65" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B462" s="65" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C462" s="65" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="D462" s="65" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B463" s="38" t="s">
         <v>226</v>
       </c>
       <c r="C463" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D463" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="D463" s="38" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B464" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C464" s="38" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C465" s="38" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="D465" s="38" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="65" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B466" s="65" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="C466" s="65" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="D466" s="65" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A467" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B467" s="38" t="s">
         <v>1033</v>
       </c>
-      <c r="B467" s="38" t="s">
-        <v>1041</v>
-      </c>
       <c r="C467" s="38" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A468" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="C468" s="38" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="D468" s="38" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A469" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C469" s="38" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D469" s="38" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="84" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B470" s="84" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C470" s="84" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="D470" s="84" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="65" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B471" s="65" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C471" s="65" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="D471" s="65" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A472" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C472" s="38" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="D472" s="38" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A473" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C473" s="38" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A474" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="C474" s="38" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="65" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B475" s="65" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C475" s="65" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="D475" s="65" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="84" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B476" s="84" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C476" s="84" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="D476" s="84" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A477" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C477" s="38" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="D477" s="38" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B478" s="38" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C478" s="38" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="D478" s="38" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="65" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B479" s="65" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C479" s="65" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D479" s="65" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="38" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B480" s="38" t="s">
         <v>226</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="38" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B481" s="38" t="s">
         <v>250</v>
@@ -12769,91 +12769,91 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="38" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B482" s="38" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C482" s="38" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D482" s="38" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="26" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B483" s="26" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C483" s="26" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A484" s="38" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B484" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C484" s="38" t="s">
         <v>1069</v>
       </c>
-      <c r="B484" s="38" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C484" s="38" t="s">
-        <v>1077</v>
-      </c>
       <c r="D484" s="38" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="38" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B485" s="38" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C485" s="38" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="D485" s="38" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="38" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B486" s="38" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="C486" s="38" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="D486" s="38" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="65" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B487" s="65" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C487" s="65" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D487" s="65" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="38" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B488" s="38" t="s">
         <v>226</v>
@@ -12867,623 +12867,623 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="38" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B489" s="38" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C489" s="38" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D489" s="38" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="84" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B490" s="84" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C490" s="84" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D490" s="84" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B491" s="65" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C491" s="65" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="D491" s="65" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A492" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B492" s="38" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="C492" s="38" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="D492" s="38" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B493" s="38" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C493" s="38" t="s">
         <v>1091</v>
       </c>
-      <c r="B493" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C493" s="38" t="s">
-        <v>1099</v>
-      </c>
       <c r="D493" s="38" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B494" s="38" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C494" s="38" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="D494" s="38" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B495" s="65" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C495" s="65" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D495" s="65" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="84" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B496" s="84" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="C496" s="84" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="D496" s="84" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B497" s="38" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="C497" s="38" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="D497" s="38" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B498" s="38" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C498" s="38" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="D498" s="38" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B499" s="38" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C499" s="38" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="D499" s="38" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B500" s="38" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C500" s="38" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="D500" s="38" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B501" s="38" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C501" s="38" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="D501" s="38" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B502" s="38" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C502" s="38" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="D502" s="38" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B503" s="38" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="C503" s="38" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D503" s="38" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B504" s="65" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="C504" s="65" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="D504" s="65" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B505" s="38" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="C505" s="38" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="D505" s="38" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B506" s="38" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="C506" s="38" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="D506" s="38" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B507" s="38" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C507" s="38" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="D507" s="38" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B508" s="38" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="C508" s="38" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="D508" s="38" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B509" s="38" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="C509" s="38" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="D509" s="38" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B510" s="38" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C510" s="38" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="D510" s="38" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B511" s="65" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="C511" s="65" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="D511" s="65" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B512" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="C512" s="38" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="D512" s="38" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B513" s="38" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C513" s="38" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="D513" s="38" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B514" s="38" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="C514" s="38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="D514" s="38" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B515" s="65" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C515" s="65" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="D515" s="65" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B516" s="38" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C516" s="38" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="D516" s="38" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B517" s="38" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C517" s="38" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="D517" s="38" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B518" s="38" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C518" s="38" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="D518" s="38" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B519" s="38" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C519" s="38" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="D519" s="38" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B520" s="38" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C520" s="38" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="D520" s="38" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B521" s="65" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="C521" s="65" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="D521" s="65" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="84" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B522" s="84" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C522" s="84" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D522" s="84" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A523" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B523" s="38" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="C523" s="38" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="D523" s="38" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A524" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B524" s="38" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C524" s="38" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D524" s="38" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B525" s="65" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C525" s="65" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D525" s="65" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B526" s="38" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="C526" s="38" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="D526" s="38" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B527" s="65" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="C527" s="65" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="D527" s="65" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B528" s="38" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C528" s="38" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D528" s="38" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B529" s="38" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="C529" s="38" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="D529" s="38" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="65" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B530" s="65" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="C530" s="65" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D530" s="65" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B531" s="38" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="C531" s="38" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="D531" s="38" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B532" s="65" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C532" s="65" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D532" s="65" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B533" s="38" t="s">
         <v>226</v>
@@ -13497,875 +13497,875 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B534" s="38" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C534" s="38" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D534" s="38" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B535" s="38" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C535" s="38" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D535" s="38" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B536" s="65" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="C536" s="65" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="D536" s="65" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B537" s="38" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C537" s="38" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="D537" s="38" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B538" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C538" s="38" t="s">
         <v>1212</v>
       </c>
-      <c r="B538" s="38" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C538" s="38" t="s">
-        <v>1220</v>
-      </c>
       <c r="D538" s="38" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B539" s="65" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C539" s="65" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D539" s="65" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="84" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B540" s="84" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="C540" s="84" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="D540" s="84" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B541" s="38" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C541" s="38" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="D541" s="38" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B542" s="38" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="C542" s="38" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="D542" s="38" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B543" s="38" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="C543" s="38" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="D543" s="38" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B544" s="65" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="C544" s="65" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="D544" s="65" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B545" s="38" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C545" s="38" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="D545" s="38" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B546" s="38" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="C546" s="38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="D546" s="38" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B547" s="38" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="C547" s="38" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="D547" s="38" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B548" s="38" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="C548" s="38" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="D548" s="38" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B549" s="38" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="C549" s="38" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="D549" s="38" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B550" s="65" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="C550" s="65" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="D550" s="65" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B551" s="38" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="C551" s="38" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="D551" s="38" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B552" s="38" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="C552" s="38" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="D552" s="38" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B553" s="38" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="C553" s="38" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="D553" s="38" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B554" s="65" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C554" s="65" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="D554" s="65" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B555" s="38" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C555" s="38" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="D555" s="38" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B556" s="38" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="C556" s="38" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="D556" s="38" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B557" s="38" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="C557" s="38" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="D557" s="38" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B558" s="38" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="C558" s="38" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="D558" s="38" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B559" s="38" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="C559" s="38" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="D559" s="38" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B560" s="65" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="C560" s="65" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="D560" s="65" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B561" s="38" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="C561" s="38" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="D561" s="38" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B562" s="38" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="C562" s="38" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="D562" s="38" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B563" s="38" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="C563" s="38" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="D563" s="38" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B564" s="65" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="C564" s="65" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="D564" s="65" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B565" s="38" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="C565" s="38" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="D565" s="38" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B566" s="38" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="C566" s="38" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="D566" s="38" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B567" s="38" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="C567" s="38" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="D567" s="38" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B568" s="38" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="C568" s="38" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="D568" s="38" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B569" s="65" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="C569" s="65" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="D569" s="65" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B570" s="38" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="C570" s="38" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="D570" s="38" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B571" s="38" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C571" s="38" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="D571" s="38" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B572" s="38" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="C572" s="38" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="D572" s="38" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B573" s="65" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="C573" s="65" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="D573" s="65" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="84" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B574" s="84" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="C574" s="84" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D574" s="84" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A575" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B575" s="38" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="C575" s="38" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="D575" s="38" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A576" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B576" s="38" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="C576" s="38" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="D576" s="38" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B577" s="38" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="C577" s="38" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="D577" s="38" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B578" s="38" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="C578" s="38" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="D578" s="38" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B579" s="65" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="C579" s="65" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="D579" s="65" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B580" s="38" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C580" s="38" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="D580" s="38" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A581" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B581" s="38" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="C581" s="38" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="D581" s="38" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B582" s="38" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="C582" s="38" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="D582" s="38" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B583" s="65" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="C583" s="65" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="D583" s="65" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A584" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B584" s="38" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="C584" s="38" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="D584" s="38" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A585" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B585" s="38" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="C585" s="38" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="D585" s="38" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A586" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B586" s="38" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="C586" s="38" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="D586" s="38" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A587" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B587" s="38" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="C587" s="38" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="D587" s="38" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B588" s="65" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C588" s="65" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="D588" s="65" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A589" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B589" s="38" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="C589" s="38" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="D589" s="38" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A590" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B590" s="38" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C590" s="38" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="D590" s="38" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="65" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B591" s="65" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="C591" s="65" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D591" s="65" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A592" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B592" s="38" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="C592" s="38" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="D592" s="38" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A593" s="38" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B593" s="38" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="C593" s="38" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="D593" s="38" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B594" s="65" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="C594" s="65" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="D594" s="65" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B595" s="38" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="C595" s="38" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="D595" s="38" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B596" s="38" t="s">
         <v>226</v>
@@ -14379,609 +14379,609 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B597" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C597" s="38" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D597" s="38" t="s">
         <v>1370</v>
-      </c>
-      <c r="B597" s="38" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C597" s="38" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D597" s="38" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B598" s="38" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="C598" s="38" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="D598" s="38" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B599" s="65" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="C599" s="65" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="D599" s="65" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A600" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B600" s="38" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="C600" s="38" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="D600" s="38" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B601" s="38" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="C601" s="38" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="D601" s="38" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A602" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B602" s="38" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C602" s="38" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D602" s="38" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B603" s="65" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C603" s="65" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D603" s="65" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="85" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B604" s="85" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="C604" s="85" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="D604" s="85" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B605" s="38" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="C605" s="38" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="D605" s="38" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B606" s="38" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="C606" s="38" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="D606" s="38" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B607" s="38" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="C607" s="38" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="D607" s="38" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B608" s="38" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="C608" s="38" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="D608" s="38" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B609" s="38" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="C609" s="38" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="D609" s="38" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B610" s="38" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="C610" s="38" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="D610" s="38" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B611" s="38" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="C611" s="38" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="D611" s="38" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B612" s="38" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C612" s="38" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="D612" s="38" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B613" s="38" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="C613" s="38" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="D613" s="38" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B614" s="38" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="C614" s="38" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="D614" s="38" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B615" s="38" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="C615" s="38" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="D615" s="38" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B616" s="38" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="C616" s="38" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="D616" s="38" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B617" s="38" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="C617" s="38" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="D617" s="38" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B618" s="65" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="C618" s="65" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="D618" s="65" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="85" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B619" s="85" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="C619" s="85" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="D619" s="85" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A620" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B620" s="38" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="C620" s="38" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="D620" s="38" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B621" s="65" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="C621" s="65" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="D621" s="65" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A622" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B622" s="38" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="C622" s="38" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="D622" s="38" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A623" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B623" s="38" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="C623" s="38" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="D623" s="38" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B624" s="65" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="C624" s="65" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D624" s="65" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A625" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B625" s="38" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="C625" s="38" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="D625" s="38" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B626" s="38" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="C626" s="38" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="D626" s="38" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B627" s="65" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="C627" s="65" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="D627" s="65" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A628" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B628" s="38" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="C628" s="38" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="D628" s="38" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A629" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B629" s="38" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="C629" s="38" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="D629" s="38" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B630" s="65" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="C630" s="65" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="D630" s="65" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A631" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B631" s="38" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="C631" s="38" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="D631" s="38" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A632" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B632" s="38" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="C632" s="38" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D632" s="38" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A633" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B633" s="38" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="C633" s="38" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="D633" s="38" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B634" s="65" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C634" s="65" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="D634" s="65" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A635" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B635" s="38" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="C635" s="38" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="D635" s="38" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B636" s="38" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="C636" s="38" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="D636" s="38" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="65" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B637" s="65" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="C637" s="65" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D637" s="65" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A638" s="38" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B638" s="38" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C638" s="38" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="D638" s="38" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B639" s="65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C639" s="65" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D639" s="65" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B640" s="38" t="s">
         <v>226</v>
@@ -14995,161 +14995,161 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B641" s="38" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C641" s="38" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="D641" s="38" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B642" s="38" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C642" s="38" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="D642" s="38" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="65" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B643" s="65" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C643" s="65" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D643" s="65" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B644" s="38" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="C644" s="38" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="D644" s="38" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="38" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B645" s="38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C645" s="38" t="s">
         <v>1474</v>
       </c>
-      <c r="B645" s="38" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C645" s="38" t="s">
-        <v>1482</v>
-      </c>
       <c r="D645" s="38" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B646" s="38" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="C646" s="38" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="D646" s="38" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A647" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B647" s="38" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="C647" s="38" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="D647" s="38" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B648" s="38" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="C648" s="38" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D648" s="38" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B649" s="38" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="C649" s="38" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="D649" s="38" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="38" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B650" s="38" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="C650" s="38" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="D650" s="38" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="74" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B651" s="65" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="C651" s="21" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="D651" s="21" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="74" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B652" s="67" t="s">
         <v>226</v>
@@ -15163,105 +15163,105 @@
     </row>
     <row r="653" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A653" s="74" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B653" s="65" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="74" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B654" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C654" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="B654" s="65" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C654" s="11" t="s">
-        <v>1507</v>
-      </c>
       <c r="D654" s="11" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B655" s="65" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B656" s="65" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="B657" s="65" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B658" s="67" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C658" s="36" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="D658" s="36" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B659" s="67" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B660" s="67" t="s">
         <v>226</v>
@@ -15275,184 +15275,184 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="74" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B661" s="67" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D661" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="B661" s="67" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D661" s="1" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B662" s="67" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="C662" s="21" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="D662" s="21" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="663" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B663" s="67" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B664" s="67" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="C664" s="21" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="D664" s="21" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B665" s="67" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B666" s="67" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B667" s="67" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B668" s="67" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B669" s="67" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="C669" s="21" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="D669" s="21" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B670" s="67" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B671" s="67" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="74" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B672" s="67" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A673" s="74" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="B673" s="65" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="D673" s="7" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -15460,13 +15460,13 @@
         <v>6</v>
       </c>
       <c r="B674" s="65" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="C674" s="11" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="D674" s="11" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
@@ -15474,13 +15474,13 @@
         <v>6</v>
       </c>
       <c r="B675" s="65" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -15488,13 +15488,13 @@
         <v>6</v>
       </c>
       <c r="B676" s="65" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -15502,13 +15502,13 @@
         <v>6</v>
       </c>
       <c r="B677" s="65" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -15516,13 +15516,13 @@
         <v>6</v>
       </c>
       <c r="B678" s="65" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -15530,13 +15530,13 @@
         <v>6</v>
       </c>
       <c r="B679" s="65" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -15544,13 +15544,13 @@
         <v>6</v>
       </c>
       <c r="B680" s="65" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="C680" s="11" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="D680" s="11" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -15558,13 +15558,13 @@
         <v>6</v>
       </c>
       <c r="B681" s="65" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -15572,13 +15572,13 @@
         <v>6</v>
       </c>
       <c r="B682" s="65" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -15586,13 +15586,13 @@
         <v>6</v>
       </c>
       <c r="B683" s="65" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -15600,13 +15600,13 @@
         <v>6</v>
       </c>
       <c r="B684" s="65" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -15614,13 +15614,13 @@
         <v>6</v>
       </c>
       <c r="B685" s="65" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="C685" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D685" s="11" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -15628,13 +15628,13 @@
         <v>6</v>
       </c>
       <c r="B686" s="65" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -15642,13 +15642,13 @@
         <v>6</v>
       </c>
       <c r="B687" s="78" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="C687" s="37" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="D687" s="37" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -15656,13 +15656,13 @@
         <v>6</v>
       </c>
       <c r="B688" s="65" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -15670,13 +15670,13 @@
         <v>6</v>
       </c>
       <c r="B689" s="65" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -15684,13 +15684,13 @@
         <v>6</v>
       </c>
       <c r="B690" s="65" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -15698,13 +15698,13 @@
         <v>6</v>
       </c>
       <c r="B691" s="65" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -15712,13 +15712,13 @@
         <v>6</v>
       </c>
       <c r="B692" s="65" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -15726,13 +15726,13 @@
         <v>6</v>
       </c>
       <c r="B693" s="65" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -15740,13 +15740,13 @@
         <v>6</v>
       </c>
       <c r="B694" s="65" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -15754,13 +15754,13 @@
         <v>6</v>
       </c>
       <c r="B695" s="65" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -15768,13 +15768,13 @@
         <v>6</v>
       </c>
       <c r="B696" s="65" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -15782,13 +15782,13 @@
         <v>6</v>
       </c>
       <c r="B697" s="65" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="C697" s="18" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="D697" s="18" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
   </sheetData>
@@ -15823,10 +15823,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15834,10 +15834,10 @@
         <v>222</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15857,29 +15857,29 @@
         <v>360</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -15909,189 +15909,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="55" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
   </sheetData>
@@ -16100,6 +16100,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9DF02DCE75175419F94A2901D0E88D7" ma:contentTypeVersion="" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e587653262687c769d91de849a74cbc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f472cc23-2c7e-449b-8da0-655b40890e31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c6c573569c8ba2fc78db51190330c54" ns2:_="">
     <xsd:import namespace="f472cc23-2c7e-449b-8da0-655b40890e31"/>
@@ -16265,35 +16280,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8373-A75A-4A25-93A7-07706D422D0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f472cc23-2c7e-449b-8da0-655b40890e31"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16315,9 +16305,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8373-A75A-4A25-93A7-07706D422D0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f472cc23-2c7e-449b-8da0-655b40890e31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Traducao_Ajustes.xlsx
+++ b/Traducao_Ajustes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCAGit\traducao-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21714D6A-F12A-45C7-A288-1768081853A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCAA01-21DD-43B7-97CB-E5B98A3722BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13C5A9BC-BB4B-4582-92D1-4AEF74685F3B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="1676">
   <si>
     <t>Path</t>
   </si>
@@ -3271,9 +3271,6 @@
     <t xml:space="preserve">Formación </t>
   </si>
   <si>
-    <t>Treinamento de Pesssoas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Personal Training </t>
   </si>
   <si>
@@ -3296,9 +3293,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y es al considerar todo eso que PCA ofrece a sus clientes servicios de entrenamiento personalizado, que incluyen no solamente la operación de los sistemas, pero también el mantenimiento de la infraestructura de hardware y software, la gestión de redes, el mantenimiento, la exploración y consolidación de información en bases de datos y la habilitación en herramientas de desarrollo. </t>
-  </si>
-  <si>
-    <t>Os cursos podem ser ministrados de forma pontual ou dentro de um pacote de serviços contratado para desenvolvimento e suporte de sistemas, visando com isso atender a todas as necessidades de {0} dentro de nossos clientes.</t>
   </si>
   <si>
     <t xml:space="preserve">Our courses are given as single events, or as part of a pack of services acquired for systems development and support, in order to provide the qualification that professionals need in our clients’ businesses. </t>
@@ -4833,9 +4827,6 @@
   </si>
   <si>
     <t xml:space="preserve">São José do Rio Preto - SP / Brazil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronel Spinola de Castro, 3360 - sala 62 </t>
   </si>
   <si>
     <t xml:space="preserve">Coronel Spínola de Castro, 3360 - sala 62 </t>
@@ -5148,6 +5139,30 @@
   </si>
   <si>
     <t>DESENVOLVIMENTO MÓVEL</t>
+  </si>
+  <si>
+    <t>Treinamento de Pessoas</t>
+  </si>
+  <si>
+    <t>Os cursos podem ser ministrados de forma pontual ou dentro de um pacote de serviços contratado para desenvolvimento e suporte de sistemas, visando, com isso, atender a todas as necessidades de {0} dentro de nossos clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronel Spinola de Castro, 3360 - room 62 </t>
+  </si>
+  <si>
+    <t>Coronel Spinola de Castro, 3360 - sala 62</t>
+  </si>
+  <si>
+    <t>Av. Marquês de São Vicente, 2219</t>
+  </si>
+  <si>
+    <t>Torre Corporate - 3º Andar – Sala 03-105</t>
+  </si>
+  <si>
+    <t>Torre Corporate - 3rd Floor – Room 03-105</t>
+  </si>
+  <si>
+    <t>Torre Corporate - 3er Piso – Sala 03-105</t>
   </si>
 </sst>
 </file>
@@ -6017,10 +6032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A748D-1826-473F-ACB4-14770F0A0FEB}">
-  <dimension ref="A1:D697"/>
+  <dimension ref="A1:D699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679"/>
+    <sheetView tabSelected="1" topLeftCell="A673" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C692" sqref="C692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7298,13 +7313,13 @@
         <v>222</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7914,7 +7929,7 @@
         <v>222</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>361</v>
@@ -8684,7 +8699,7 @@
         <v>491</v>
       </c>
       <c r="B190" s="65" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>502</v>
@@ -8698,7 +8713,7 @@
         <v>491</v>
       </c>
       <c r="B191" s="65" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>504</v>
@@ -8796,7 +8811,7 @@
         <v>491</v>
       </c>
       <c r="B198" s="65" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>519</v>
@@ -8880,7 +8895,7 @@
         <v>491</v>
       </c>
       <c r="B204" s="65" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>529</v>
@@ -8894,7 +8909,7 @@
         <v>491</v>
       </c>
       <c r="B205" s="65" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>531</v>
@@ -9104,7 +9119,7 @@
         <v>491</v>
       </c>
       <c r="B220" s="65" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>557</v>
@@ -9160,7 +9175,7 @@
         <v>491</v>
       </c>
       <c r="B224" s="65" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>562</v>
@@ -9244,7 +9259,7 @@
         <v>491</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>573</v>
@@ -9482,7 +9497,7 @@
         <v>491</v>
       </c>
       <c r="B247" s="65" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>611</v>
@@ -9818,7 +9833,7 @@
         <v>491</v>
       </c>
       <c r="B271" s="65" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>653</v>
@@ -9860,7 +9875,7 @@
         <v>491</v>
       </c>
       <c r="B274" s="65" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>661</v>
@@ -9888,7 +9903,7 @@
         <v>491</v>
       </c>
       <c r="B276" s="65" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>666</v>
@@ -10098,7 +10113,7 @@
         <v>491</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>695</v>
@@ -10196,7 +10211,7 @@
         <v>491</v>
       </c>
       <c r="B298" s="65" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>708</v>
@@ -10266,7 +10281,7 @@
         <v>491</v>
       </c>
       <c r="B303" s="65" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>715</v>
@@ -10280,7 +10295,7 @@
         <v>491</v>
       </c>
       <c r="B304" s="65" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>717</v>
@@ -10490,7 +10505,7 @@
         <v>491</v>
       </c>
       <c r="B319" s="65" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>742</v>
@@ -10504,7 +10519,7 @@
         <v>491</v>
       </c>
       <c r="B320" s="67" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>744</v>
@@ -10588,7 +10603,7 @@
         <v>491</v>
       </c>
       <c r="B326" s="65" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>754</v>
@@ -11162,7 +11177,7 @@
         <v>491</v>
       </c>
       <c r="B367" s="65" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>822</v>
@@ -11218,7 +11233,7 @@
         <v>491</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>829</v>
@@ -11288,7 +11303,7 @@
         <v>491</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>837</v>
@@ -12786,13 +12801,13 @@
         <v>1069</v>
       </c>
       <c r="B483" s="26" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C483" s="26" t="s">
         <v>1073</v>
       </c>
-      <c r="C483" s="26" t="s">
+      <c r="D483" s="26" t="s">
         <v>1074</v>
-      </c>
-      <c r="D483" s="26" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -12800,13 +12815,13 @@
         <v>1069</v>
       </c>
       <c r="B484" s="38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C484" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="C484" s="38" t="s">
+      <c r="D484" s="38" t="s">
         <v>1077</v>
-      </c>
-      <c r="D484" s="38" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -12814,13 +12829,13 @@
         <v>1069</v>
       </c>
       <c r="B485" s="38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C485" s="38" t="s">
         <v>1079</v>
       </c>
-      <c r="C485" s="38" t="s">
+      <c r="D485" s="38" t="s">
         <v>1080</v>
-      </c>
-      <c r="D485" s="38" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -12828,32 +12843,32 @@
         <v>1069</v>
       </c>
       <c r="B486" s="38" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C486" s="38" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D486" s="38" t="s">
         <v>1082</v>
-      </c>
-      <c r="C486" s="38" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D486" s="38" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B487" s="65" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C487" s="65" t="s">
         <v>1085</v>
       </c>
-      <c r="B487" s="65" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C487" s="65" t="s">
-        <v>1087</v>
-      </c>
       <c r="D487" s="65" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B488" s="38" t="s">
         <v>226</v>
@@ -12867,83 +12882,83 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B489" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C489" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D489" s="38" t="s">
         <v>1088</v>
-      </c>
-      <c r="C489" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D489" s="38" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="84" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B490" s="84" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C490" s="84" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D490" s="84" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B491" s="65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C491" s="65" t="s">
         <v>1091</v>
       </c>
-      <c r="B491" s="65" t="s">
+      <c r="D491" s="65" t="s">
         <v>1092</v>
-      </c>
-      <c r="C491" s="65" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D491" s="65" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A492" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B492" s="38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C492" s="38" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D492" s="38" t="s">
         <v>1095</v>
-      </c>
-      <c r="C492" s="38" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D492" s="38" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B493" s="38" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C493" s="38" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D493" s="38" t="s">
         <v>1098</v>
-      </c>
-      <c r="C493" s="38" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D493" s="38" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B494" s="38" t="s">
         <v>727</v>
       </c>
       <c r="C494" s="38" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D494" s="38" t="s">
         <v>729</v>
@@ -12951,539 +12966,539 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B495" s="65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C495" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D495" s="65" t="s">
         <v>1102</v>
-      </c>
-      <c r="C495" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D495" s="65" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="84" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B496" s="84" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C496" s="84" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D496" s="84" t="s">
         <v>1105</v>
-      </c>
-      <c r="C496" s="84" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D496" s="84" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B497" s="38" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C497" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D497" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B498" s="38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C498" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D498" s="38" t="s">
         <v>1110</v>
-      </c>
-      <c r="C498" s="38" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D498" s="38" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B499" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C499" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D499" s="38" t="s">
         <v>1113</v>
-      </c>
-      <c r="C499" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D499" s="38" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B500" s="38" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C500" s="38" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D500" s="38" t="s">
         <v>1116</v>
-      </c>
-      <c r="C500" s="38" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D500" s="38" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B501" s="38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C501" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D501" s="38" t="s">
         <v>1119</v>
-      </c>
-      <c r="C501" s="38" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D501" s="38" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B502" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C502" s="38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D502" s="38" t="s">
         <v>1122</v>
-      </c>
-      <c r="C502" s="38" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D502" s="38" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B503" s="38" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C503" s="38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D503" s="38" t="s">
         <v>1125</v>
-      </c>
-      <c r="C503" s="38" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D503" s="38" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B504" s="65" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C504" s="65" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D504" s="65" t="s">
         <v>1128</v>
-      </c>
-      <c r="C504" s="65" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D504" s="65" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B505" s="38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C505" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D505" s="38" t="s">
         <v>1131</v>
-      </c>
-      <c r="C505" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D505" s="38" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B506" s="38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C506" s="38" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D506" s="38" t="s">
         <v>1134</v>
-      </c>
-      <c r="C506" s="38" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D506" s="38" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B507" s="38" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C507" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D507" s="38" t="s">
         <v>1137</v>
-      </c>
-      <c r="C507" s="38" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D507" s="38" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B508" s="38" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C508" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D508" s="38" t="s">
         <v>1140</v>
-      </c>
-      <c r="C508" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D508" s="38" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B509" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C509" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D509" s="38" t="s">
         <v>1143</v>
-      </c>
-      <c r="C509" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D509" s="38" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B510" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C510" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D510" s="38" t="s">
         <v>1146</v>
-      </c>
-      <c r="C510" s="38" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D510" s="38" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B511" s="65" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C511" s="65" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D511" s="65" t="s">
         <v>1149</v>
-      </c>
-      <c r="C511" s="65" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D511" s="65" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B512" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C512" s="38" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D512" s="38" t="s">
         <v>1152</v>
-      </c>
-      <c r="C512" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D512" s="38" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B513" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C513" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D513" s="38" t="s">
         <v>1155</v>
-      </c>
-      <c r="C513" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D513" s="38" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B514" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C514" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D514" s="38" t="s">
         <v>1158</v>
-      </c>
-      <c r="C514" s="38" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D514" s="38" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B515" s="65" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C515" s="65" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D515" s="65" t="s">
         <v>1161</v>
-      </c>
-      <c r="C515" s="65" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D515" s="65" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B516" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C516" s="38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D516" s="38" t="s">
         <v>1164</v>
-      </c>
-      <c r="C516" s="38" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D516" s="38" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B517" s="38" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C517" s="38" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D517" s="38" t="s">
         <v>1167</v>
-      </c>
-      <c r="C517" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D517" s="38" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B518" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C518" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D518" s="38" t="s">
         <v>1170</v>
-      </c>
-      <c r="C518" s="38" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D518" s="38" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B519" s="38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C519" s="38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D519" s="38" t="s">
         <v>1173</v>
-      </c>
-      <c r="C519" s="38" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D519" s="38" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B520" s="38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C520" s="38" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D520" s="38" t="s">
         <v>1176</v>
-      </c>
-      <c r="C520" s="38" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D520" s="38" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B521" s="65" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C521" s="65" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D521" s="65" t="s">
         <v>1179</v>
-      </c>
-      <c r="C521" s="65" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D521" s="65" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="84" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B522" s="84" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C522" s="84" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D522" s="84" t="s">
         <v>1182</v>
-      </c>
-      <c r="C522" s="84" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D522" s="84" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A523" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B523" s="38" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C523" s="38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D523" s="38" t="s">
         <v>1185</v>
-      </c>
-      <c r="C523" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D523" s="38" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A524" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B524" s="38" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C524" s="38" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D524" s="38" t="s">
         <v>1188</v>
-      </c>
-      <c r="C524" s="38" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D524" s="38" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B525" s="65" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C525" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D525" s="65" t="s">
         <v>1191</v>
-      </c>
-      <c r="C525" s="65" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D525" s="65" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B526" s="38" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C526" s="38" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D526" s="38" t="s">
         <v>1194</v>
-      </c>
-      <c r="C526" s="38" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D526" s="38" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B527" s="65" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C527" s="65" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D527" s="65" t="s">
         <v>1197</v>
-      </c>
-      <c r="C527" s="65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D527" s="65" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B528" s="38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C528" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D528" s="38" t="s">
         <v>1200</v>
-      </c>
-      <c r="C528" s="38" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D528" s="38" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B529" s="38" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C529" s="38" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D529" s="38" t="s">
         <v>1203</v>
-      </c>
-      <c r="C529" s="38" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D529" s="38" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="65" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B530" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C530" s="65" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D530" s="65" t="s">
         <v>1206</v>
-      </c>
-      <c r="C530" s="65" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D530" s="65" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B531" s="38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C531" s="38" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D531" s="38" t="s">
         <v>1209</v>
-      </c>
-      <c r="C531" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D531" s="38" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="65" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B532" s="65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C532" s="65" t="s">
         <v>1212</v>
       </c>
-      <c r="B532" s="65" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C532" s="65" t="s">
-        <v>1214</v>
-      </c>
       <c r="D532" s="65" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B533" s="38" t="s">
         <v>226</v>
@@ -13497,55 +13512,55 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B534" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C534" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D534" s="38" t="s">
         <v>1088</v>
-      </c>
-      <c r="C534" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D534" s="38" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B535" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C535" s="38" t="s">
         <v>1212</v>
       </c>
-      <c r="B535" s="38" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C535" s="38" t="s">
-        <v>1214</v>
-      </c>
       <c r="D535" s="38" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B536" s="65" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C536" s="65" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D536" s="65" t="s">
         <v>1215</v>
-      </c>
-      <c r="C536" s="65" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D536" s="65" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B537" s="38" t="s">
         <v>764</v>
       </c>
       <c r="C537" s="38" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D537" s="38" t="s">
         <v>766</v>
@@ -13553,819 +13568,819 @@
     </row>
     <row r="538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B538" s="38" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C538" s="38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D538" s="38" t="s">
         <v>1219</v>
-      </c>
-      <c r="C538" s="38" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D538" s="38" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B539" s="65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C539" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D539" s="65" t="s">
         <v>1102</v>
-      </c>
-      <c r="C539" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D539" s="65" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="84" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B540" s="84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C540" s="84" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D540" s="84" t="s">
         <v>1222</v>
-      </c>
-      <c r="C540" s="84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D540" s="84" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B541" s="38" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C541" s="38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D541" s="38" t="s">
         <v>1225</v>
-      </c>
-      <c r="C541" s="38" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D541" s="38" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B542" s="38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C542" s="38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D542" s="38" t="s">
         <v>1228</v>
-      </c>
-      <c r="C542" s="38" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D542" s="38" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B543" s="38" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C543" s="38" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D543" s="38" t="s">
         <v>1231</v>
-      </c>
-      <c r="C543" s="38" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D543" s="38" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B544" s="65" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C544" s="65" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D544" s="65" t="s">
         <v>1128</v>
-      </c>
-      <c r="C544" s="65" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D544" s="65" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B545" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C545" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D545" s="38" t="s">
         <v>1155</v>
-      </c>
-      <c r="C545" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D545" s="38" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B546" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C546" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D546" s="38" t="s">
         <v>1158</v>
-      </c>
-      <c r="C546" s="38" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D546" s="38" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B547" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C547" s="38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D547" s="38" t="s">
         <v>1234</v>
-      </c>
-      <c r="C547" s="38" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D547" s="38" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B548" s="38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C548" s="38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D548" s="38" t="s">
         <v>1237</v>
-      </c>
-      <c r="C548" s="38" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D548" s="38" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B549" s="38" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C549" s="38" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D549" s="38" t="s">
         <v>1240</v>
-      </c>
-      <c r="C549" s="38" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D549" s="38" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B550" s="65" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C550" s="65" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D550" s="65" t="s">
         <v>1243</v>
-      </c>
-      <c r="C550" s="65" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D550" s="65" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B551" s="38" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C551" s="38" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D551" s="38" t="s">
         <v>1246</v>
-      </c>
-      <c r="C551" s="38" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D551" s="38" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B552" s="38" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C552" s="38" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D552" s="38" t="s">
         <v>1249</v>
-      </c>
-      <c r="C552" s="38" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D552" s="38" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B553" s="38" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C553" s="38" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D553" s="38" t="s">
         <v>1252</v>
-      </c>
-      <c r="C553" s="38" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D553" s="38" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B554" s="65" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C554" s="65" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D554" s="65" t="s">
         <v>1255</v>
-      </c>
-      <c r="C554" s="65" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D554" s="65" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B555" s="38" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C555" s="38" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D555" s="38" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B556" s="38" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C556" s="38" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D556" s="38" t="s">
         <v>1260</v>
-      </c>
-      <c r="C556" s="38" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D556" s="38" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B557" s="38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C557" s="38" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D557" s="38" t="s">
         <v>1263</v>
-      </c>
-      <c r="C557" s="38" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D557" s="38" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B558" s="38" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C558" s="38" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D558" s="38" t="s">
         <v>1266</v>
-      </c>
-      <c r="C558" s="38" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D558" s="38" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B559" s="38" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C559" s="38" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D559" s="38" t="s">
         <v>1269</v>
-      </c>
-      <c r="C559" s="38" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D559" s="38" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B560" s="65" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C560" s="65" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D560" s="65" t="s">
         <v>1105</v>
-      </c>
-      <c r="C560" s="65" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D560" s="65" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B561" s="38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C561" s="38" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D561" s="38" t="s">
         <v>1273</v>
-      </c>
-      <c r="C561" s="38" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D561" s="38" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B562" s="38" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C562" s="38" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D562" s="38" t="s">
         <v>1276</v>
-      </c>
-      <c r="C562" s="38" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D562" s="38" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B563" s="38" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C563" s="38" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D563" s="38" t="s">
         <v>1279</v>
-      </c>
-      <c r="C563" s="38" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D563" s="38" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B564" s="65" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C564" s="65" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D564" s="65" t="s">
         <v>1282</v>
-      </c>
-      <c r="C564" s="65" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D564" s="65" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B565" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C565" s="38" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D565" s="38" t="s">
         <v>1285</v>
-      </c>
-      <c r="C565" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D565" s="38" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B566" s="38" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C566" s="38" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D566" s="38" t="s">
         <v>1288</v>
-      </c>
-      <c r="C566" s="38" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D566" s="38" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B567" s="38" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C567" s="38" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D567" s="38" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B568" s="38" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C568" s="38" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D568" s="38" t="s">
         <v>1293</v>
-      </c>
-      <c r="C568" s="38" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D568" s="38" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B569" s="65" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C569" s="65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D569" s="65" t="s">
         <v>1296</v>
-      </c>
-      <c r="C569" s="65" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D569" s="65" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B570" s="38" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C570" s="38" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D570" s="38" t="s">
         <v>1299</v>
-      </c>
-      <c r="C570" s="38" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D570" s="38" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B571" s="38" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C571" s="38" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D571" s="38" t="s">
         <v>1302</v>
-      </c>
-      <c r="C571" s="38" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D571" s="38" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B572" s="38" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C572" s="38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D572" s="38" t="s">
         <v>1305</v>
-      </c>
-      <c r="C572" s="38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D572" s="38" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B573" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C573" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D573" s="65" t="s">
         <v>1308</v>
-      </c>
-      <c r="C573" s="65" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D573" s="65" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="84" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B574" s="84" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C574" s="84" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D574" s="84" t="s">
         <v>1311</v>
-      </c>
-      <c r="C574" s="84" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D574" s="84" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A575" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B575" s="38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C575" s="38" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D575" s="38" t="s">
         <v>1314</v>
-      </c>
-      <c r="C575" s="38" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D575" s="38" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A576" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B576" s="38" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C576" s="38" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D576" s="38" t="s">
         <v>1317</v>
-      </c>
-      <c r="C576" s="38" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D576" s="38" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B577" s="38" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C577" s="38" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D577" s="38" t="s">
         <v>1320</v>
-      </c>
-      <c r="C577" s="38" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D577" s="38" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B578" s="38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C578" s="38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D578" s="38" t="s">
         <v>1323</v>
-      </c>
-      <c r="C578" s="38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D578" s="38" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B579" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C579" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D579" s="65" t="s">
         <v>1326</v>
-      </c>
-      <c r="C579" s="65" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D579" s="65" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B580" s="38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C580" s="38" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D580" s="38" t="s">
         <v>1329</v>
-      </c>
-      <c r="C580" s="38" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D580" s="38" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A581" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B581" s="38" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C581" s="38" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D581" s="38" t="s">
         <v>1332</v>
-      </c>
-      <c r="C581" s="38" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D581" s="38" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B582" s="38" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C582" s="38" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D582" s="38" t="s">
         <v>1335</v>
-      </c>
-      <c r="C582" s="38" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D582" s="38" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B583" s="65" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C583" s="65" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D583" s="65" t="s">
         <v>1338</v>
-      </c>
-      <c r="C583" s="65" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D583" s="65" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A584" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B584" s="38" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C584" s="38" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D584" s="38" t="s">
         <v>1341</v>
-      </c>
-      <c r="C584" s="38" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D584" s="38" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A585" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B585" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C585" s="38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D585" s="38" t="s">
         <v>1344</v>
-      </c>
-      <c r="C585" s="38" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D585" s="38" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A586" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B586" s="38" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C586" s="38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D586" s="38" t="s">
         <v>1347</v>
-      </c>
-      <c r="C586" s="38" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D586" s="38" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A587" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B587" s="38" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C587" s="38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D587" s="38" t="s">
         <v>1350</v>
-      </c>
-      <c r="C587" s="38" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D587" s="38" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B588" s="65" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C588" s="65" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D588" s="65" t="s">
         <v>1353</v>
-      </c>
-      <c r="C588" s="65" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D588" s="65" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A589" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B589" s="38" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C589" s="38" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D589" s="38" t="s">
         <v>1356</v>
-      </c>
-      <c r="C589" s="38" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D589" s="38" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A590" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B590" s="38" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C590" s="38" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D590" s="38" t="s">
         <v>1359</v>
-      </c>
-      <c r="C590" s="38" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D590" s="38" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="65" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B591" s="65" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C591" s="65" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D591" s="65" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A592" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B592" s="38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C592" s="38" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D592" s="38" t="s">
         <v>1364</v>
-      </c>
-      <c r="C592" s="38" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D592" s="38" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A593" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B593" s="38" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C593" s="38" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D593" s="38" t="s">
         <v>1367</v>
-      </c>
-      <c r="C593" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D593" s="38" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="65" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B594" s="65" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C594" s="65" t="s">
         <v>1370</v>
       </c>
-      <c r="B594" s="65" t="s">
+      <c r="D594" s="65" t="s">
         <v>1371</v>
-      </c>
-      <c r="C594" s="65" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D594" s="65" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B595" s="38" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C595" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D595" s="38" t="s">
         <v>1374</v>
-      </c>
-      <c r="C595" s="38" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D595" s="38" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B596" s="38" t="s">
         <v>226</v>
@@ -14379,595 +14394,595 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B597" s="38" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C597" s="38" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D597" s="38" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B598" s="38" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C598" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="B598" s="38" t="s">
+      <c r="D598" s="38" t="s">
         <v>1371</v>
-      </c>
-      <c r="C598" s="38" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D598" s="38" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B599" s="65" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C599" s="65" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D599" s="65" t="s">
         <v>1379</v>
-      </c>
-      <c r="C599" s="65" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D599" s="65" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A600" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B600" s="38" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C600" s="38" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D600" s="38" t="s">
         <v>1382</v>
-      </c>
-      <c r="C600" s="38" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D600" s="38" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B601" s="38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C601" s="38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D601" s="38" t="s">
         <v>1385</v>
-      </c>
-      <c r="C601" s="38" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D601" s="38" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A602" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B602" s="38" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C602" s="38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D602" s="38" t="s">
         <v>1388</v>
-      </c>
-      <c r="C602" s="38" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D602" s="38" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B603" s="65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C603" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D603" s="65" t="s">
         <v>1102</v>
-      </c>
-      <c r="C603" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D603" s="65" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="85" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B604" s="85" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C604" s="85" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D604" s="85" t="s">
         <v>1391</v>
-      </c>
-      <c r="C604" s="85" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D604" s="85" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B605" s="38" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C605" s="38" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D605" s="38" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B606" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C606" s="38" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D606" s="38" t="s">
         <v>1158</v>
-      </c>
-      <c r="C606" s="38" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D606" s="38" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B607" s="38" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C607" s="38" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D607" s="38" t="s">
         <v>1396</v>
-      </c>
-      <c r="C607" s="38" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D607" s="38" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B608" s="38" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C608" s="38" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D608" s="38" t="s">
         <v>1399</v>
-      </c>
-      <c r="C608" s="38" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D608" s="38" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B609" s="38" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C609" s="38" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D609" s="38" t="s">
         <v>1402</v>
-      </c>
-      <c r="C609" s="38" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D609" s="38" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B610" s="38" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C610" s="38" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D610" s="38" t="s">
         <v>1405</v>
-      </c>
-      <c r="C610" s="38" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D610" s="38" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B611" s="38" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C611" s="38" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D611" s="38" t="s">
         <v>1408</v>
-      </c>
-      <c r="C611" s="38" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D611" s="38" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B612" s="38" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C612" s="38" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D612" s="38" t="s">
         <v>1411</v>
-      </c>
-      <c r="C612" s="38" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D612" s="38" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B613" s="38" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C613" s="38" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D613" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B614" s="38" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C614" s="38" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D614" s="38" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B615" s="38" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C615" s="38" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D615" s="38" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B616" s="38" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C616" s="38" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D616" s="38" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B617" s="38" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C617" s="38" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D617" s="38" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B618" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C618" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D618" s="65" t="s">
         <v>1308</v>
-      </c>
-      <c r="C618" s="65" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D618" s="65" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="85" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B619" s="85" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C619" s="85" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D619" s="85" t="s">
         <v>1421</v>
-      </c>
-      <c r="C619" s="85" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D619" s="85" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A620" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B620" s="38" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C620" s="38" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D620" s="38" t="s">
         <v>1424</v>
-      </c>
-      <c r="C620" s="38" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D620" s="38" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B621" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C621" s="65" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D621" s="65" t="s">
         <v>1427</v>
-      </c>
-      <c r="C621" s="65" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D621" s="65" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A622" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B622" s="38" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C622" s="38" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D622" s="38" t="s">
         <v>1430</v>
-      </c>
-      <c r="C622" s="38" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D622" s="38" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A623" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B623" s="38" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C623" s="38" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D623" s="38" t="s">
         <v>1433</v>
-      </c>
-      <c r="C623" s="38" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D623" s="38" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B624" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C624" s="65" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D624" s="65" t="s">
         <v>1311</v>
-      </c>
-      <c r="C624" s="65" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D624" s="65" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A625" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B625" s="38" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C625" s="38" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D625" s="38" t="s">
         <v>1436</v>
-      </c>
-      <c r="C625" s="38" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D625" s="38" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B626" s="38" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C626" s="38" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D626" s="38" t="s">
         <v>1439</v>
-      </c>
-      <c r="C626" s="38" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D626" s="38" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B627" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C627" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D627" s="65" t="s">
         <v>1326</v>
-      </c>
-      <c r="C627" s="65" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D627" s="65" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A628" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B628" s="38" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C628" s="38" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D628" s="38" t="s">
         <v>1442</v>
-      </c>
-      <c r="C628" s="38" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D628" s="38" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A629" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B629" s="38" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C629" s="38" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D629" s="38" t="s">
         <v>1445</v>
-      </c>
-      <c r="C629" s="38" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D629" s="38" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B630" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C630" s="65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D630" s="65" t="s">
         <v>1448</v>
-      </c>
-      <c r="C630" s="65" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D630" s="65" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A631" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B631" s="38" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C631" s="38" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D631" s="38" t="s">
         <v>1451</v>
-      </c>
-      <c r="C631" s="38" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D631" s="38" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A632" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B632" s="38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C632" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D632" s="38" t="s">
         <v>1454</v>
-      </c>
-      <c r="C632" s="38" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D632" s="38" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A633" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B633" s="38" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C633" s="38" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D633" s="38" t="s">
         <v>1457</v>
-      </c>
-      <c r="C633" s="38" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D633" s="38" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B634" s="65" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C634" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D634" s="65" t="s">
         <v>1460</v>
-      </c>
-      <c r="C634" s="65" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D634" s="65" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A635" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B635" s="38" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C635" s="38" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D635" s="38" t="s">
         <v>1463</v>
-      </c>
-      <c r="C635" s="38" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D635" s="38" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B636" s="38" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C636" s="38" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D636" s="38" t="s">
         <v>1466</v>
-      </c>
-      <c r="C636" s="38" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D636" s="38" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B637" s="65" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C637" s="65" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D637" s="65" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A638" s="38" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B638" s="38" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C638" s="38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D638" s="38" t="s">
         <v>1471</v>
-      </c>
-      <c r="C638" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D638" s="38" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B639" s="65" t="s">
         <v>542</v>
@@ -14981,7 +14996,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B640" s="38" t="s">
         <v>226</v>
@@ -14995,35 +15010,35 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="38" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B641" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C641" s="38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D641" s="38" t="s">
         <v>1474</v>
-      </c>
-      <c r="B641" s="38" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C641" s="38" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D641" s="38" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B642" s="38" t="s">
         <v>542</v>
       </c>
       <c r="C642" s="38" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D642" s="38" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="65" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B643" s="65" t="s">
         <v>587</v>
@@ -15037,119 +15052,119 @@
     </row>
     <row r="644" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B644" s="38" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C644" s="38" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D644" s="38" t="s">
         <v>1478</v>
-      </c>
-      <c r="C644" s="38" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D644" s="38" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B645" s="38" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C645" s="38" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D645" s="38" t="s">
         <v>1481</v>
-      </c>
-      <c r="C645" s="38" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D645" s="38" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B646" s="38" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C646" s="38" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D646" s="38" t="s">
         <v>1484</v>
-      </c>
-      <c r="C646" s="38" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D646" s="38" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A647" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B647" s="38" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C647" s="38" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D647" s="38" t="s">
         <v>1487</v>
-      </c>
-      <c r="C647" s="38" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D647" s="38" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B648" s="38" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C648" s="38" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D648" s="38" t="s">
         <v>1490</v>
-      </c>
-      <c r="C648" s="38" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D648" s="38" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B649" s="38" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C649" s="38" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D649" s="38" t="s">
         <v>1493</v>
-      </c>
-      <c r="C649" s="38" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D649" s="38" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="38" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B650" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C650" s="38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D650" s="38" t="s">
         <v>1496</v>
-      </c>
-      <c r="C650" s="38" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D650" s="38" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B651" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C651" s="21" t="s">
         <v>1499</v>
       </c>
-      <c r="B651" s="65" t="s">
+      <c r="D651" s="21" t="s">
         <v>1500</v>
-      </c>
-      <c r="C651" s="21" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D651" s="21" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="74" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B652" s="67" t="s">
         <v>226</v>
@@ -15163,105 +15178,105 @@
     </row>
     <row r="653" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A653" s="74" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B653" s="65" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D653" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="74" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B654" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C654" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D654" s="11" t="s">
         <v>1506</v>
-      </c>
-      <c r="C654" s="11" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D654" s="11" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B655" s="65" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D655" s="1" t="s">
         <v>1509</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B656" s="65" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D656" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B657" s="65" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D657" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="74" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B658" s="67" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C658" s="36" t="s">
         <v>1518</v>
       </c>
-      <c r="B658" s="67" t="s">
+      <c r="D658" s="36" t="s">
         <v>1519</v>
-      </c>
-      <c r="C658" s="36" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D658" s="36" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B659" s="67" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B660" s="67" t="s">
         <v>226</v>
@@ -15275,184 +15290,184 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B661" s="67" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D661" s="1" t="s">
         <v>1524</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D661" s="1" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B662" s="67" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C662" s="21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D662" s="21" t="s">
         <v>1527</v>
-      </c>
-      <c r="C662" s="21" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D662" s="21" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="663" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B663" s="67" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D663" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D663" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B664" s="67" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C664" s="21" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D664" s="21" t="s">
         <v>1533</v>
-      </c>
-      <c r="C664" s="21" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D664" s="21" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B665" s="67" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B666" s="67" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B667" s="67" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D667" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="C667" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D667" s="1" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B668" s="67" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B669" s="67" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C669" s="21" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D669" s="21" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B670" s="67" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B671" s="67" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D671" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D671" s="1" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="74" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B672" s="67" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A673" s="74" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B673" s="65" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D673" s="7" t="s">
         <v>1550</v>
-      </c>
-      <c r="C673" s="7" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D673" s="7" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -15460,13 +15475,13 @@
         <v>6</v>
       </c>
       <c r="B674" s="65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D674" s="11" t="s">
         <v>1553</v>
-      </c>
-      <c r="C674" s="11" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D674" s="11" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
@@ -15474,13 +15489,13 @@
         <v>6</v>
       </c>
       <c r="B675" s="65" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -15488,13 +15503,13 @@
         <v>6</v>
       </c>
       <c r="B676" s="65" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D676" s="1" t="s">
         <v>1558</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -15502,13 +15517,13 @@
         <v>6</v>
       </c>
       <c r="B677" s="65" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D677" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="C677" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D677" s="1" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -15516,13 +15531,13 @@
         <v>6</v>
       </c>
       <c r="B678" s="65" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -15530,13 +15545,13 @@
         <v>6</v>
       </c>
       <c r="B679" s="65" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -15544,13 +15559,13 @@
         <v>6</v>
       </c>
       <c r="B680" s="65" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C680" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D680" s="11" t="s">
         <v>1567</v>
-      </c>
-      <c r="C680" s="11" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D680" s="11" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -15558,13 +15573,13 @@
         <v>6</v>
       </c>
       <c r="B681" s="65" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D681" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D681" s="1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -15572,13 +15587,13 @@
         <v>6</v>
       </c>
       <c r="B682" s="65" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D682" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -15586,13 +15601,13 @@
         <v>6</v>
       </c>
       <c r="B683" s="65" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -15600,13 +15615,13 @@
         <v>6</v>
       </c>
       <c r="B684" s="65" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D684" s="1" t="s">
         <v>1578</v>
-      </c>
-      <c r="C684" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D684" s="1" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -15614,13 +15629,13 @@
         <v>6</v>
       </c>
       <c r="B685" s="65" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C685" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D685" s="11" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -15628,13 +15643,13 @@
         <v>6</v>
       </c>
       <c r="B686" s="65" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -15642,13 +15657,13 @@
         <v>6</v>
       </c>
       <c r="B687" s="78" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C687" s="37" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D687" s="37" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -15656,13 +15671,13 @@
         <v>6</v>
       </c>
       <c r="B688" s="65" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -15670,13 +15685,13 @@
         <v>6</v>
       </c>
       <c r="B689" s="65" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -15684,13 +15699,13 @@
         <v>6</v>
       </c>
       <c r="B690" s="65" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -15698,13 +15713,13 @@
         <v>6</v>
       </c>
       <c r="B691" s="65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D691" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D691" s="1" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -15712,13 +15727,13 @@
         <v>6</v>
       </c>
       <c r="B692" s="65" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -15726,13 +15741,13 @@
         <v>6</v>
       </c>
       <c r="B693" s="65" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -15740,13 +15755,13 @@
         <v>6</v>
       </c>
       <c r="B694" s="65" t="s">
-        <v>1590</v>
+        <v>1671</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1590</v>
+        <v>1670</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -15754,13 +15769,13 @@
         <v>6</v>
       </c>
       <c r="B695" s="65" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D695" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="C695" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D695" s="1" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -15768,13 +15783,13 @@
         <v>6</v>
       </c>
       <c r="B696" s="65" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -15782,13 +15797,41 @@
         <v>6</v>
       </c>
       <c r="B697" s="65" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C697" s="18" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D697" s="18" t="s">
-        <v>1592</v>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>1675</v>
       </c>
     </row>
   </sheetData>
@@ -15823,10 +15866,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15834,10 +15877,10 @@
         <v>222</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15857,7 +15900,7 @@
         <v>360</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -15865,10 +15908,10 @@
         <v>491</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -15876,10 +15919,10 @@
         <v>491</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
   </sheetData>
@@ -15909,189 +15952,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>1602</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>1606</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>1610</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>1614</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="55" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>1629</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>1632</v>
-      </c>
       <c r="C11" s="48" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>1634</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -16100,6 +16143,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9DF02DCE75175419F94A2901D0E88D7" ma:contentTypeVersion="" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e587653262687c769d91de849a74cbc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f472cc23-2c7e-449b-8da0-655b40890e31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c6c573569c8ba2fc78db51190330c54" ns2:_="">
     <xsd:import namespace="f472cc23-2c7e-449b-8da0-655b40890e31"/>
@@ -16265,35 +16323,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8373-A75A-4A25-93A7-07706D422D0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f472cc23-2c7e-449b-8da0-655b40890e31"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16315,9 +16348,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA77F192-55F3-40DC-B582-35EE3E8B7D35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8373-A75A-4A25-93A7-07706D422D0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f472cc23-2c7e-449b-8da0-655b40890e31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Traducao_Ajustes.xlsx
+++ b/Traducao_Ajustes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PCAGit\traducao-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.ferreira\Documents\Tradução PCA\traducao-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCAA01-21DD-43B7-97CB-E5B98A3722BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E8ED5-0A96-4B8F-8DFD-6270CFABD730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13C5A9BC-BB4B-4582-92D1-4AEF74685F3B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Observações" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Traduções!$A$1:$D$697</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Traduções!$A$1:$D$699</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="1678">
   <si>
     <t>Path</t>
   </si>
@@ -3563,9 +3563,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trabaja con canales à la carte </t>
-  </si>
-  <si>
-    <t>É multi-líingua, multi-moeda e multi-programadora</t>
   </si>
   <si>
     <t xml:space="preserve">It is multilingual, multicurrency, and multiprogrammer </t>
@@ -5163,6 +5160,15 @@
   </si>
   <si>
     <t>Torre Corporate - 3er Piso – Sala 03-105</t>
+  </si>
+  <si>
+    <t>É multi-lingua, multi-moeda e multi-programadora</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Inicio</t>
   </si>
 </sst>
 </file>
@@ -5736,7 +5742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6032,10 +6038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A748D-1826-473F-ACB4-14770F0A0FEB}">
-  <dimension ref="A1:D699"/>
+  <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C692" sqref="C692"/>
+    <sheetView tabSelected="1" topLeftCell="A485" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D492" sqref="D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,13 +7319,13 @@
         <v>222</v>
       </c>
       <c r="B91" s="56" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C91" s="56" t="s">
         <v>1638</v>
       </c>
-      <c r="C91" s="56" t="s">
+      <c r="D91" s="56" t="s">
         <v>1639</v>
-      </c>
-      <c r="D91" s="56" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,7 +7935,7 @@
         <v>222</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>361</v>
@@ -8699,7 +8705,7 @@
         <v>491</v>
       </c>
       <c r="B190" s="65" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>502</v>
@@ -8713,7 +8719,7 @@
         <v>491</v>
       </c>
       <c r="B191" s="65" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>504</v>
@@ -8811,7 +8817,7 @@
         <v>491</v>
       </c>
       <c r="B198" s="65" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>519</v>
@@ -8895,7 +8901,7 @@
         <v>491</v>
       </c>
       <c r="B204" s="65" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>529</v>
@@ -8909,7 +8915,7 @@
         <v>491</v>
       </c>
       <c r="B205" s="65" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>531</v>
@@ -9119,7 +9125,7 @@
         <v>491</v>
       </c>
       <c r="B220" s="65" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>557</v>
@@ -9175,7 +9181,7 @@
         <v>491</v>
       </c>
       <c r="B224" s="65" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>562</v>
@@ -9259,7 +9265,7 @@
         <v>491</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>573</v>
@@ -9497,7 +9503,7 @@
         <v>491</v>
       </c>
       <c r="B247" s="65" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>611</v>
@@ -9833,7 +9839,7 @@
         <v>491</v>
       </c>
       <c r="B271" s="65" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>653</v>
@@ -9875,7 +9881,7 @@
         <v>491</v>
       </c>
       <c r="B274" s="65" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>661</v>
@@ -9903,7 +9909,7 @@
         <v>491</v>
       </c>
       <c r="B276" s="65" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>666</v>
@@ -10113,7 +10119,7 @@
         <v>491</v>
       </c>
       <c r="B291" s="65" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>695</v>
@@ -10211,7 +10217,7 @@
         <v>491</v>
       </c>
       <c r="B298" s="65" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>708</v>
@@ -10281,7 +10287,7 @@
         <v>491</v>
       </c>
       <c r="B303" s="65" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>715</v>
@@ -10295,7 +10301,7 @@
         <v>491</v>
       </c>
       <c r="B304" s="65" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>717</v>
@@ -10505,7 +10511,7 @@
         <v>491</v>
       </c>
       <c r="B319" s="65" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>742</v>
@@ -10519,7 +10525,7 @@
         <v>491</v>
       </c>
       <c r="B320" s="67" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>744</v>
@@ -10603,7 +10609,7 @@
         <v>491</v>
       </c>
       <c r="B326" s="65" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>754</v>
@@ -11177,7 +11183,7 @@
         <v>491</v>
       </c>
       <c r="B367" s="65" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>822</v>
@@ -11233,7 +11239,7 @@
         <v>491</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>829</v>
@@ -11303,7 +11309,7 @@
         <v>491</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>837</v>
@@ -12801,7 +12807,7 @@
         <v>1069</v>
       </c>
       <c r="B483" s="26" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C483" s="26" t="s">
         <v>1073</v>
@@ -12843,7 +12849,7 @@
         <v>1069</v>
       </c>
       <c r="B486" s="38" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C486" s="38" t="s">
         <v>1081</v>
@@ -12909,129 +12915,121 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="65" t="s">
+      <c r="A491" s="84" t="s">
         <v>1089</v>
       </c>
-      <c r="B491" s="65" t="s">
+      <c r="B491" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C491" s="84" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D491" s="84" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B492" s="65" t="s">
         <v>1090</v>
       </c>
-      <c r="C491" s="65" t="s">
+      <c r="C492" s="65" t="s">
         <v>1091</v>
       </c>
-      <c r="D491" s="65" t="s">
+      <c r="D492" s="65" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A492" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B492" s="38" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C492" s="38" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D492" s="38" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A493" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B493" s="38" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C493" s="38" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D493" s="38" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="65"/>
+      <c r="B493" s="65"/>
+      <c r="C493" s="65"/>
+      <c r="D493" s="65"/>
+    </row>
+    <row r="494" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B494" s="38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C494" s="38" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D494" s="38" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A495" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B495" s="38" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C495" s="38" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D495" s="38" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A496" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B496" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="C494" s="38" t="s">
+      <c r="C496" s="38" t="s">
         <v>1099</v>
       </c>
-      <c r="D494" s="38" t="s">
+      <c r="D496" s="38" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="65" t="s">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="B495" s="65" t="s">
+      <c r="B497" s="65" t="s">
         <v>1100</v>
       </c>
-      <c r="C495" s="65" t="s">
+      <c r="C497" s="65" t="s">
         <v>1101</v>
       </c>
-      <c r="D495" s="65" t="s">
+      <c r="D497" s="65" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="84" t="s">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="84" t="s">
         <v>1089</v>
       </c>
-      <c r="B496" s="84" t="s">
+      <c r="B498" s="84" t="s">
         <v>1103</v>
       </c>
-      <c r="C496" s="84" t="s">
+      <c r="C498" s="84" t="s">
         <v>1104</v>
       </c>
-      <c r="D496" s="84" t="s">
+      <c r="D498" s="84" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A497" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B497" s="38" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C497" s="38" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D497" s="38" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B498" s="38" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C498" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D498" s="38" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B499" s="38" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C499" s="38" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="D499" s="38" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -13039,13 +13037,13 @@
         <v>1089</v>
       </c>
       <c r="B500" s="38" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C500" s="38" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D500" s="38" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -13053,13 +13051,13 @@
         <v>1089</v>
       </c>
       <c r="B501" s="38" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C501" s="38" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D501" s="38" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -13067,13 +13065,13 @@
         <v>1089</v>
       </c>
       <c r="B502" s="38" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C502" s="38" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D502" s="38" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -13081,27 +13079,27 @@
         <v>1089</v>
       </c>
       <c r="B503" s="38" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C503" s="38" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D503" s="38" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="65" t="s">
+      <c r="A504" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="B504" s="65" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C504" s="65" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D504" s="65" t="s">
-        <v>1128</v>
+      <c r="B504" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C504" s="38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D504" s="38" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -13109,27 +13107,27 @@
         <v>1089</v>
       </c>
       <c r="B505" s="38" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C505" s="38" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D505" s="38" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="38" t="s">
+      <c r="A506" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="B506" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C506" s="38" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D506" s="38" t="s">
-        <v>1134</v>
+      <c r="B506" s="65" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C506" s="65" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D506" s="65" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -13137,13 +13135,13 @@
         <v>1089</v>
       </c>
       <c r="B507" s="38" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C507" s="38" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="D507" s="38" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -13151,13 +13149,13 @@
         <v>1089</v>
       </c>
       <c r="B508" s="38" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C508" s="38" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="D508" s="38" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -13165,69 +13163,69 @@
         <v>1089</v>
       </c>
       <c r="B509" s="38" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C509" s="38" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="D509" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B510" s="38" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C510" s="38" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="D510" s="38" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="65" t="s">
+      <c r="A511" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="B511" s="65" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C511" s="65" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D511" s="65" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C511" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D511" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B512" s="38" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C512" s="38" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D512" s="38" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="38" t="s">
+      <c r="A513" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="B513" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C513" s="38" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D513" s="38" t="s">
-        <v>1155</v>
+      <c r="B513" s="65" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C513" s="65" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D513" s="65" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -13235,27 +13233,27 @@
         <v>1089</v>
       </c>
       <c r="B514" s="38" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C514" s="38" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D514" s="38" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="65" t="s">
+      <c r="A515" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="B515" s="65" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C515" s="65" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D515" s="65" t="s">
-        <v>1161</v>
+      <c r="B515" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C515" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D515" s="38" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -13263,27 +13261,27 @@
         <v>1089</v>
       </c>
       <c r="B516" s="38" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C516" s="38" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D516" s="38" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A517" s="38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="B517" s="38" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C517" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D517" s="38" t="s">
-        <v>1167</v>
+      <c r="B517" s="65" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C517" s="65" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D517" s="65" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -13291,27 +13289,27 @@
         <v>1089</v>
       </c>
       <c r="B518" s="38" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C518" s="38" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="D518" s="38" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B519" s="38" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C519" s="38" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D519" s="38" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -13319,97 +13317,97 @@
         <v>1089</v>
       </c>
       <c r="B520" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C520" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D520" s="38" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B521" s="38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C521" s="38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D521" s="38" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B522" s="38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C522" s="38" t="s">
         <v>1174</v>
       </c>
-      <c r="C520" s="38" t="s">
+      <c r="D522" s="38" t="s">
         <v>1175</v>
       </c>
-      <c r="D520" s="38" t="s">
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B523" s="65" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="65" t="s">
+      <c r="C523" s="65" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D523" s="65" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="84" t="s">
         <v>1089</v>
       </c>
-      <c r="B521" s="65" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C521" s="65" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D521" s="65" t="s">
+      <c r="B524" s="84" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="84" t="s">
+      <c r="C524" s="84" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D524" s="84" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A525" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="B522" s="84" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C522" s="84" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D522" s="84" t="s">
+      <c r="B525" s="38" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A523" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B523" s="38" t="s">
+      <c r="C525" s="38" t="s">
         <v>1183</v>
       </c>
-      <c r="C523" s="38" t="s">
+      <c r="D525" s="38" t="s">
         <v>1184</v>
       </c>
-      <c r="D523" s="38" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A524" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B524" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C524" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D524" s="38" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="65" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B525" s="65" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C525" s="65" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D525" s="65" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B526" s="38" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="C526" s="38" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="D526" s="38" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -13417,55 +13415,55 @@
         <v>1089</v>
       </c>
       <c r="B527" s="65" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C527" s="65" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D527" s="65" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="B528" s="38" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C528" s="38" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D528" s="38" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B529" s="65" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C529" s="65" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D529" s="65" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A530" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B530" s="38" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C530" s="38" t="s">
         <v>1198</v>
       </c>
-      <c r="C528" s="38" t="s">
+      <c r="D530" s="38" t="s">
         <v>1199</v>
-      </c>
-      <c r="D528" s="38" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A529" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B529" s="38" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C529" s="38" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D529" s="38" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="65" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B530" s="65" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C530" s="65" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D530" s="65" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -13473,2029 +13471,2029 @@
         <v>1089</v>
       </c>
       <c r="B531" s="38" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C531" s="38" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D531" s="38" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B532" s="65" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C532" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D532" s="65" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A533" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B533" s="38" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C533" s="38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D533" s="38" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B534" s="65" t="s">
         <v>1210</v>
       </c>
-      <c r="B532" s="65" t="s">
+      <c r="C534" s="65" t="s">
         <v>1211</v>
       </c>
-      <c r="C532" s="65" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D532" s="65" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B533" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C533" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D533" s="38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B534" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C534" s="38" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D534" s="38" t="s">
-        <v>1088</v>
+      <c r="D534" s="65" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B535" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C535" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D535" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B536" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C536" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D536" s="38" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B537" s="38" t="s">
         <v>1210</v>
       </c>
-      <c r="B535" s="38" t="s">
+      <c r="C537" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="C535" s="38" t="s">
+      <c r="D537" s="38" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B538" s="65" t="s">
         <v>1212</v>
       </c>
-      <c r="D535" s="38" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B536" s="65" t="s">
+      <c r="C538" s="65" t="s">
         <v>1213</v>
       </c>
-      <c r="C536" s="65" t="s">
+      <c r="D538" s="65" t="s">
         <v>1214</v>
       </c>
-      <c r="D536" s="65" t="s">
+    </row>
+    <row r="539" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A539" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B539" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="C539" s="38" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A537" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B537" s="38" t="s">
-        <v>764</v>
-      </c>
-      <c r="C537" s="38" t="s">
+      <c r="D539" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A540" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B540" s="38" t="s">
         <v>1216</v>
       </c>
-      <c r="D537" s="38" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A538" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B538" s="38" t="s">
+      <c r="C540" s="38" t="s">
         <v>1217</v>
       </c>
-      <c r="C538" s="38" t="s">
+      <c r="D540" s="38" t="s">
         <v>1218</v>
       </c>
-      <c r="D538" s="38" t="s">
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B541" s="65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C541" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D541" s="65" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="84" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B542" s="84" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B539" s="65" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C539" s="65" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D539" s="65" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="84" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B540" s="84" t="s">
+      <c r="C542" s="84" t="s">
         <v>1220</v>
       </c>
-      <c r="C540" s="84" t="s">
+      <c r="D542" s="84" t="s">
         <v>1221</v>
-      </c>
-      <c r="D540" s="84" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B541" s="38" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C541" s="38" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D541" s="38" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B542" s="38" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C542" s="38" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D542" s="38" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B543" s="38" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="C543" s="38" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D543" s="38" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B544" s="65" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C544" s="65" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D544" s="65" t="s">
-        <v>1128</v>
+      <c r="A544" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B544" s="38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C544" s="38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D544" s="38" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B545" s="38" t="s">
-        <v>1153</v>
+        <v>1228</v>
       </c>
       <c r="C545" s="38" t="s">
-        <v>1154</v>
+        <v>1229</v>
       </c>
       <c r="D545" s="38" t="s">
-        <v>1155</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B546" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C546" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D546" s="38" t="s">
-        <v>1158</v>
+      <c r="A546" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B546" s="65" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C546" s="65" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D546" s="65" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B547" s="38" t="s">
-        <v>1232</v>
+        <v>1153</v>
       </c>
       <c r="C547" s="38" t="s">
-        <v>1233</v>
+        <v>1154</v>
       </c>
       <c r="D547" s="38" t="s">
-        <v>1234</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B548" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C548" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D548" s="38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B549" s="38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C549" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D549" s="38" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B550" s="38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C550" s="38" t="s">
         <v>1235</v>
       </c>
-      <c r="C548" s="38" t="s">
+      <c r="D550" s="38" t="s">
         <v>1236</v>
-      </c>
-      <c r="D548" s="38" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A549" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B549" s="38" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C549" s="38" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D549" s="38" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B550" s="65" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C550" s="65" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D550" s="65" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B551" s="38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C551" s="38" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D551" s="38" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B552" s="65" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C552" s="65" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D552" s="65" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A553" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B553" s="38" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C553" s="38" t="s">
         <v>1244</v>
       </c>
-      <c r="C551" s="38" t="s">
+      <c r="D553" s="38" t="s">
         <v>1245</v>
       </c>
-      <c r="D551" s="38" t="s">
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B554" s="38" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B552" s="38" t="s">
+      <c r="C554" s="38" t="s">
         <v>1247</v>
       </c>
-      <c r="C552" s="38" t="s">
+      <c r="D554" s="38" t="s">
         <v>1248</v>
-      </c>
-      <c r="D552" s="38" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B553" s="38" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C553" s="38" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D553" s="38" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B554" s="65" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C554" s="65" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D554" s="65" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B555" s="38" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C555" s="38" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D555" s="38" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A556" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B556" s="38" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C556" s="38" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D556" s="38" t="s">
-        <v>1260</v>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B556" s="65" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C556" s="65" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D556" s="65" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B557" s="38" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C557" s="38" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="D557" s="38" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B558" s="38" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="C558" s="38" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="D558" s="38" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B559" s="38" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C559" s="38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D559" s="38" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A560" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B560" s="38" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C560" s="38" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D560" s="38" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B561" s="38" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C561" s="38" t="s">
         <v>1267</v>
       </c>
-      <c r="C559" s="38" t="s">
+      <c r="D561" s="38" t="s">
         <v>1268</v>
       </c>
-      <c r="D559" s="38" t="s">
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B562" s="65" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C562" s="65" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B560" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C560" s="65" t="s">
+      <c r="D562" s="65" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B563" s="38" t="s">
         <v>1270</v>
       </c>
-      <c r="D560" s="65" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A561" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B561" s="38" t="s">
+      <c r="C563" s="38" t="s">
         <v>1271</v>
       </c>
-      <c r="C561" s="38" t="s">
+      <c r="D563" s="38" t="s">
         <v>1272</v>
       </c>
-      <c r="D561" s="38" t="s">
+    </row>
+    <row r="564" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A564" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B564" s="38" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A562" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B562" s="38" t="s">
+      <c r="C564" s="38" t="s">
         <v>1274</v>
       </c>
-      <c r="C562" s="38" t="s">
+      <c r="D564" s="38" t="s">
         <v>1275</v>
       </c>
-      <c r="D562" s="38" t="s">
+    </row>
+    <row r="565" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A565" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B565" s="38" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A563" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B563" s="38" t="s">
+      <c r="C565" s="38" t="s">
         <v>1277</v>
       </c>
-      <c r="C563" s="38" t="s">
+      <c r="D565" s="38" t="s">
         <v>1278</v>
       </c>
-      <c r="D563" s="38" t="s">
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B566" s="65" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B564" s="65" t="s">
+      <c r="C566" s="65" t="s">
         <v>1280</v>
       </c>
-      <c r="C564" s="65" t="s">
+      <c r="D566" s="65" t="s">
         <v>1281</v>
-      </c>
-      <c r="D564" s="65" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B565" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C565" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D565" s="38" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B566" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C566" s="38" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D566" s="38" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B567" s="38" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="C567" s="38" t="s">
-        <v>1175</v>
+        <v>1283</v>
       </c>
       <c r="D567" s="38" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B568" s="38" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C568" s="38" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D568" s="38" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A569" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B569" s="65" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C569" s="65" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D569" s="65" t="s">
-        <v>1296</v>
+      <c r="A569" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B569" s="38" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C569" s="38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D569" s="38" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B570" s="38" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="C570" s="38" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="D570" s="38" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B571" s="38" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C571" s="38" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D571" s="38" t="s">
-        <v>1302</v>
+      <c r="A571" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B571" s="65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C571" s="65" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D571" s="65" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B572" s="38" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C572" s="38" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D572" s="38" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B573" s="38" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C573" s="38" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D573" s="38" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B574" s="38" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C574" s="38" t="s">
         <v>1303</v>
       </c>
-      <c r="C572" s="38" t="s">
+      <c r="D574" s="38" t="s">
         <v>1304</v>
       </c>
-      <c r="D572" s="38" t="s">
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B575" s="65" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B573" s="65" t="s">
+      <c r="C575" s="65" t="s">
         <v>1306</v>
       </c>
-      <c r="C573" s="65" t="s">
+      <c r="D575" s="65" t="s">
         <v>1307</v>
       </c>
-      <c r="D573" s="65" t="s">
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="84" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B576" s="84" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="84" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B574" s="84" t="s">
+      <c r="C576" s="84" t="s">
         <v>1309</v>
       </c>
-      <c r="C574" s="84" t="s">
+      <c r="D576" s="84" t="s">
         <v>1310</v>
       </c>
-      <c r="D574" s="84" t="s">
+    </row>
+    <row r="577" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A577" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B577" s="38" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A575" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B575" s="38" t="s">
+      <c r="C577" s="38" t="s">
         <v>1312</v>
       </c>
-      <c r="C575" s="38" t="s">
+      <c r="D577" s="38" t="s">
         <v>1313</v>
       </c>
-      <c r="D575" s="38" t="s">
+    </row>
+    <row r="578" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A578" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B578" s="38" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A576" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B576" s="38" t="s">
+      <c r="C578" s="38" t="s">
         <v>1315</v>
       </c>
-      <c r="C576" s="38" t="s">
+      <c r="D578" s="38" t="s">
         <v>1316</v>
       </c>
-      <c r="D576" s="38" t="s">
+    </row>
+    <row r="579" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A579" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B579" s="38" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A577" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B577" s="38" t="s">
+      <c r="C579" s="38" t="s">
         <v>1318</v>
       </c>
-      <c r="C577" s="38" t="s">
+      <c r="D579" s="38" t="s">
         <v>1319</v>
       </c>
-      <c r="D577" s="38" t="s">
+    </row>
+    <row r="580" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A580" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B580" s="38" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A578" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B578" s="38" t="s">
+      <c r="C580" s="38" t="s">
         <v>1321</v>
       </c>
-      <c r="C578" s="38" t="s">
+      <c r="D580" s="38" t="s">
         <v>1322</v>
       </c>
-      <c r="D578" s="38" t="s">
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B581" s="65" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B579" s="65" t="s">
+      <c r="C581" s="65" t="s">
         <v>1324</v>
       </c>
-      <c r="C579" s="65" t="s">
+      <c r="D581" s="65" t="s">
         <v>1325</v>
       </c>
-      <c r="D579" s="65" t="s">
+    </row>
+    <row r="582" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A582" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B582" s="38" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A580" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B580" s="38" t="s">
+      <c r="C582" s="38" t="s">
         <v>1327</v>
       </c>
-      <c r="C580" s="38" t="s">
+      <c r="D582" s="38" t="s">
         <v>1328</v>
       </c>
-      <c r="D580" s="38" t="s">
+    </row>
+    <row r="583" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A583" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B583" s="38" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A581" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B581" s="38" t="s">
+      <c r="C583" s="38" t="s">
         <v>1330</v>
       </c>
-      <c r="C581" s="38" t="s">
+      <c r="D583" s="38" t="s">
         <v>1331</v>
       </c>
-      <c r="D581" s="38" t="s">
+    </row>
+    <row r="584" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A584" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B584" s="38" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A582" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B582" s="38" t="s">
+      <c r="C584" s="38" t="s">
         <v>1333</v>
       </c>
-      <c r="C582" s="38" t="s">
+      <c r="D584" s="38" t="s">
         <v>1334</v>
       </c>
-      <c r="D582" s="38" t="s">
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B585" s="65" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B583" s="65" t="s">
+      <c r="C585" s="65" t="s">
         <v>1336</v>
       </c>
-      <c r="C583" s="65" t="s">
+      <c r="D585" s="65" t="s">
         <v>1337</v>
-      </c>
-      <c r="D583" s="65" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A584" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B584" s="38" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C584" s="38" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D584" s="38" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A585" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B585" s="38" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C585" s="38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D585" s="38" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A586" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B586" s="38" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C586" s="38" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D586" s="38" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A587" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B587" s="38" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C587" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D587" s="38" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A588" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B588" s="38" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C588" s="38" t="s">
         <v>1345</v>
       </c>
-      <c r="C586" s="38" t="s">
+      <c r="D588" s="38" t="s">
         <v>1346</v>
       </c>
-      <c r="D586" s="38" t="s">
+    </row>
+    <row r="589" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A589" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B589" s="38" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A587" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B587" s="38" t="s">
+      <c r="C589" s="38" t="s">
         <v>1348</v>
       </c>
-      <c r="C587" s="38" t="s">
+      <c r="D589" s="38" t="s">
         <v>1349</v>
       </c>
-      <c r="D587" s="38" t="s">
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B590" s="65" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B588" s="65" t="s">
+      <c r="C590" s="65" t="s">
         <v>1351</v>
       </c>
-      <c r="C588" s="65" t="s">
+      <c r="D590" s="65" t="s">
         <v>1352</v>
       </c>
-      <c r="D588" s="65" t="s">
+    </row>
+    <row r="591" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A591" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B591" s="38" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A589" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B589" s="38" t="s">
+      <c r="C591" s="38" t="s">
         <v>1354</v>
       </c>
-      <c r="C589" s="38" t="s">
+      <c r="D591" s="38" t="s">
         <v>1355</v>
       </c>
-      <c r="D589" s="38" t="s">
+    </row>
+    <row r="592" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A592" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B592" s="38" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A590" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B590" s="38" t="s">
+      <c r="C592" s="38" t="s">
         <v>1357</v>
       </c>
-      <c r="C590" s="38" t="s">
+      <c r="D592" s="38" t="s">
         <v>1358</v>
       </c>
-      <c r="D590" s="38" t="s">
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B593" s="65" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B591" s="65" t="s">
+      <c r="C593" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D593" s="65" t="s">
         <v>1360</v>
       </c>
-      <c r="C591" s="65" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D591" s="65" t="s">
+    </row>
+    <row r="594" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A594" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B594" s="38" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A592" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B592" s="38" t="s">
+      <c r="C594" s="38" t="s">
         <v>1362</v>
       </c>
-      <c r="C592" s="38" t="s">
+      <c r="D594" s="38" t="s">
         <v>1363</v>
       </c>
-      <c r="D592" s="38" t="s">
+    </row>
+    <row r="595" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A595" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B595" s="38" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A593" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B593" s="38" t="s">
+      <c r="C595" s="38" t="s">
         <v>1365</v>
       </c>
-      <c r="C593" s="38" t="s">
+      <c r="D595" s="38" t="s">
         <v>1366</v>
       </c>
-      <c r="D593" s="38" t="s">
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="65" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="65" t="s">
+      <c r="B596" s="65" t="s">
         <v>1368</v>
       </c>
-      <c r="B594" s="65" t="s">
+      <c r="C596" s="65" t="s">
         <v>1369</v>
       </c>
-      <c r="C594" s="65" t="s">
+      <c r="D596" s="65" t="s">
         <v>1370</v>
-      </c>
-      <c r="D594" s="65" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B595" s="38" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C595" s="38" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D595" s="38" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B596" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C596" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D596" s="38" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B597" s="38" t="s">
-        <v>1086</v>
+        <v>1371</v>
       </c>
       <c r="C597" s="38" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D597" s="38" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B598" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C598" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D598" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B599" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C599" s="38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D599" s="38" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B600" s="38" t="s">
         <v>1368</v>
       </c>
-      <c r="B598" s="38" t="s">
+      <c r="C600" s="38" t="s">
         <v>1369</v>
       </c>
-      <c r="C598" s="38" t="s">
+      <c r="D600" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="D598" s="38" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B599" s="65" t="s">
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B601" s="65" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C601" s="65" t="s">
         <v>1377</v>
       </c>
-      <c r="C599" s="65" t="s">
+      <c r="D601" s="65" t="s">
         <v>1378</v>
       </c>
-      <c r="D599" s="65" t="s">
+    </row>
+    <row r="602" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A602" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B602" s="38" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A600" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B600" s="38" t="s">
+      <c r="C602" s="38" t="s">
         <v>1380</v>
       </c>
-      <c r="C600" s="38" t="s">
+      <c r="D602" s="38" t="s">
         <v>1381</v>
       </c>
-      <c r="D600" s="38" t="s">
+    </row>
+    <row r="603" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A603" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B603" s="38" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A601" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B601" s="38" t="s">
+      <c r="C603" s="38" t="s">
         <v>1383</v>
       </c>
-      <c r="C601" s="38" t="s">
+      <c r="D603" s="38" t="s">
         <v>1384</v>
       </c>
-      <c r="D601" s="38" t="s">
+    </row>
+    <row r="604" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A604" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B604" s="38" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A602" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B602" s="38" t="s">
+      <c r="C604" s="38" t="s">
         <v>1386</v>
       </c>
-      <c r="C602" s="38" t="s">
+      <c r="D604" s="38" t="s">
         <v>1387</v>
       </c>
-      <c r="D602" s="38" t="s">
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B605" s="65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C605" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D605" s="65" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="85" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B606" s="85" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B603" s="65" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C603" s="65" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D603" s="65" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" s="85" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B604" s="85" t="s">
+      <c r="C606" s="85" t="s">
         <v>1389</v>
       </c>
-      <c r="C604" s="85" t="s">
+      <c r="D606" s="85" t="s">
         <v>1390</v>
-      </c>
-      <c r="D604" s="85" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B605" s="38" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C605" s="38" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D605" s="38" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B606" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C606" s="38" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D606" s="38" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B607" s="38" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C607" s="38" t="s">
-        <v>1395</v>
+        <v>1127</v>
       </c>
       <c r="D607" s="38" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B608" s="38" t="s">
-        <v>1397</v>
+        <v>1156</v>
       </c>
       <c r="C608" s="38" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="D608" s="38" t="s">
-        <v>1399</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B609" s="38" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="C609" s="38" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="D609" s="38" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A610" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B610" s="38" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="C610" s="38" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="D610" s="38" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B611" s="38" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C611" s="38" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D611" s="38" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B612" s="38" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="C612" s="38" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="D612" s="38" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B613" s="38" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="C613" s="38" t="s">
-        <v>1281</v>
+        <v>1406</v>
       </c>
       <c r="D613" s="38" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B614" s="38" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="C614" s="38" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="D614" s="38" t="s">
-        <v>1285</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B615" s="38" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="C615" s="38" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D615" s="38" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B616" s="38" t="s">
-        <v>1289</v>
+        <v>1413</v>
       </c>
       <c r="C616" s="38" t="s">
-        <v>1175</v>
+        <v>1414</v>
       </c>
       <c r="D616" s="38" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="38" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B617" s="38" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C617" s="38" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D617" s="38" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B618" s="38" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C618" s="38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D618" s="38" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B619" s="38" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C619" s="38" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D619" s="38" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B620" s="65" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C620" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D620" s="65" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="85" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B621" s="85" t="s">
         <v>1418</v>
       </c>
-      <c r="C617" s="38" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D617" s="38" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B618" s="65" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C618" s="65" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D618" s="65" t="s">
+      <c r="C621" s="85" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D621" s="85" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A622" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B622" s="38" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C622" s="38" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D622" s="38" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B623" s="65" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C623" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D623" s="65" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A624" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B624" s="38" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C624" s="38" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D624" s="38" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A625" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B625" s="38" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C625" s="38" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D625" s="38" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B626" s="65" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="85" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B619" s="85" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C619" s="85" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D619" s="85" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A620" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B620" s="38" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C620" s="38" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D620" s="38" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B621" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C621" s="65" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D621" s="65" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A622" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B622" s="38" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C622" s="38" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D622" s="38" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A623" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B623" s="38" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C623" s="38" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D623" s="38" t="s">
+      <c r="C626" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D626" s="65" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A627" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B627" s="38" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B624" s="65" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C624" s="65" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D624" s="65" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A625" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B625" s="38" t="s">
+      <c r="C627" s="38" t="s">
         <v>1434</v>
       </c>
-      <c r="C625" s="38" t="s">
+      <c r="D627" s="38" t="s">
         <v>1435</v>
       </c>
-      <c r="D625" s="38" t="s">
+    </row>
+    <row r="628" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A628" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B628" s="38" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A626" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B626" s="38" t="s">
+      <c r="C628" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="C626" s="38" t="s">
+      <c r="D628" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="D626" s="38" t="s">
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B629" s="65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C629" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D629" s="65" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A630" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B630" s="38" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B627" s="65" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C627" s="65" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D627" s="65" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A628" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B628" s="38" t="s">
+      <c r="C630" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="C628" s="38" t="s">
+      <c r="D630" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="D628" s="38" t="s">
+    </row>
+    <row r="631" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A631" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B631" s="38" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A629" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B629" s="38" t="s">
+      <c r="C631" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="C629" s="38" t="s">
+      <c r="D631" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="D629" s="38" t="s">
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B632" s="65" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B630" s="65" t="s">
+      <c r="C632" s="65" t="s">
         <v>1446</v>
       </c>
-      <c r="C630" s="65" t="s">
+      <c r="D632" s="65" t="s">
         <v>1447</v>
       </c>
-      <c r="D630" s="65" t="s">
+    </row>
+    <row r="633" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A633" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B633" s="38" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A631" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B631" s="38" t="s">
+      <c r="C633" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="C631" s="38" t="s">
+      <c r="D633" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="D631" s="38" t="s">
+    </row>
+    <row r="634" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A634" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B634" s="38" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A632" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B632" s="38" t="s">
+      <c r="C634" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="C632" s="38" t="s">
+      <c r="D634" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="D632" s="38" t="s">
+    </row>
+    <row r="635" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A635" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B635" s="38" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A633" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B633" s="38" t="s">
+      <c r="C635" s="38" t="s">
         <v>1455</v>
       </c>
-      <c r="C633" s="38" t="s">
+      <c r="D635" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="D633" s="38" t="s">
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B636" s="65" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B634" s="65" t="s">
+      <c r="C636" s="65" t="s">
         <v>1458</v>
       </c>
-      <c r="C634" s="65" t="s">
+      <c r="D636" s="65" t="s">
         <v>1459</v>
       </c>
-      <c r="D634" s="65" t="s">
+    </row>
+    <row r="637" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A637" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B637" s="38" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A635" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B635" s="38" t="s">
+      <c r="C637" s="38" t="s">
         <v>1461</v>
       </c>
-      <c r="C635" s="38" t="s">
+      <c r="D637" s="38" t="s">
         <v>1462</v>
       </c>
-      <c r="D635" s="38" t="s">
+    </row>
+    <row r="638" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A638" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B638" s="38" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A636" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B636" s="38" t="s">
+      <c r="C638" s="38" t="s">
         <v>1464</v>
       </c>
-      <c r="C636" s="38" t="s">
+      <c r="D638" s="38" t="s">
         <v>1465</v>
-      </c>
-      <c r="D636" s="38" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A637" s="65" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B637" s="65" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C637" s="65" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D637" s="65" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A638" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B638" s="38" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C638" s="38" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D638" s="38" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
-        <v>1472</v>
+        <v>1367</v>
       </c>
       <c r="B639" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C639" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D639" s="65" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A640" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B640" s="38" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C640" s="38" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D640" s="38" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B641" s="65" t="s">
         <v>542</v>
       </c>
-      <c r="C639" s="65" t="s">
+      <c r="C641" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="D639" s="65" t="s">
+      <c r="D641" s="65" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A640" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B640" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C640" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D640" s="38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B641" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C641" s="38" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D641" s="38" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B642" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C642" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D642" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B643" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C643" s="38" t="s">
         <v>1472</v>
       </c>
-      <c r="B642" s="38" t="s">
+      <c r="D643" s="38" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B644" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C642" s="38" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D642" s="38" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A643" s="65" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B643" s="65" t="s">
+      <c r="C644" s="38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D644" s="38" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B645" s="65" t="s">
         <v>587</v>
       </c>
-      <c r="C643" s="65" t="s">
+      <c r="C645" s="65" t="s">
         <v>588</v>
       </c>
-      <c r="D643" s="65" t="s">
+      <c r="D645" s="65" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A644" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B644" s="38" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C644" s="38" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D644" s="38" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B645" s="38" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C645" s="38" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D645" s="38" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="38" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B646" s="38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C646" s="38" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D646" s="38" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B647" s="38" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C647" s="38" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D647" s="38" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A648" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B648" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C648" s="38" t="s">
         <v>1482</v>
       </c>
-      <c r="C646" s="38" t="s">
+      <c r="D648" s="38" t="s">
         <v>1483</v>
-      </c>
-      <c r="D646" s="38" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A647" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B647" s="38" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C647" s="38" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D647" s="38" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B648" s="38" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C648" s="38" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D648" s="38" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="38" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B649" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C649" s="38" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D649" s="38" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B650" s="38" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C650" s="38" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D650" s="38" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A651" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B651" s="38" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C651" s="38" t="s">
         <v>1491</v>
       </c>
-      <c r="C649" s="38" t="s">
+      <c r="D651" s="38" t="s">
         <v>1492</v>
       </c>
-      <c r="D649" s="38" t="s">
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B652" s="38" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A650" s="38" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B650" s="38" t="s">
+      <c r="C652" s="38" t="s">
         <v>1494</v>
       </c>
-      <c r="C650" s="38" t="s">
+      <c r="D652" s="38" t="s">
         <v>1495</v>
       </c>
-      <c r="D650" s="38" t="s">
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="74" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A651" s="74" t="s">
+      <c r="B653" s="65" t="s">
         <v>1497</v>
       </c>
-      <c r="B651" s="65" t="s">
+      <c r="C653" s="21" t="s">
         <v>1498</v>
       </c>
-      <c r="C651" s="21" t="s">
+      <c r="D653" s="21" t="s">
         <v>1499</v>
-      </c>
-      <c r="D651" s="21" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652" s="74" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B652" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D652" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A653" s="74" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B653" s="65" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="74" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B654" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B654" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A655" s="74" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B655" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="74" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B656" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C656" s="11" t="s">
         <v>1504</v>
       </c>
-      <c r="C654" s="11" t="s">
+      <c r="D656" s="11" t="s">
         <v>1505</v>
-      </c>
-      <c r="D654" s="11" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B655" s="65" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B656" s="65" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B657" s="65" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B658" s="65" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B659" s="65" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C659" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="C657" s="1" t="s">
+      <c r="D659" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A658" s="74" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B658" s="67" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C658" s="36" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D658" s="36" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A659" s="74" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B659" s="67" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C659" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D659" s="1" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="74" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B660" s="67" t="s">
         <v>1516</v>
       </c>
-      <c r="B660" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D660" s="1" t="s">
-        <v>228</v>
+      <c r="C660" s="36" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D660" s="36" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="74" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B661" s="67" t="s">
         <v>1516</v>
       </c>
-      <c r="B661" s="67" t="s">
-        <v>1522</v>
-      </c>
       <c r="C661" s="1" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B662" s="67" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C662" s="21" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D662" s="21" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B663" s="67" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B664" s="67" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="C664" s="21" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="D664" s="21" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B665" s="67" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B666" s="67" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C666" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D666" s="1" t="s">
-        <v>1535</v>
+        <v>1530</v>
+      </c>
+      <c r="C666" s="21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D666" s="21" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B667" s="67" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B668" s="67" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B669" s="67" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C669" s="21" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D669" s="21" t="s">
-        <v>1540</v>
+        <v>1535</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B670" s="67" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B671" s="67" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D671" s="1" t="s">
-        <v>1546</v>
+        <v>1539</v>
+      </c>
+      <c r="C671" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D671" s="21" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="74" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B672" s="67" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="74" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B673" s="65" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C673" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D673" s="7" t="s">
-        <v>1550</v>
+        <v>1515</v>
+      </c>
+      <c r="B673" s="67" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B674" s="65" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C674" s="11" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D674" s="11" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1515</v>
+      </c>
+      <c r="B674" s="67" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A675" s="74" t="s">
-        <v>6</v>
+        <v>1641</v>
       </c>
       <c r="B675" s="65" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C675" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D675" s="1" t="s">
-        <v>1554</v>
+        <v>1547</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D675" s="7" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -15503,13 +15501,13 @@
         <v>6</v>
       </c>
       <c r="B676" s="65" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>1558</v>
+        <v>1550</v>
+      </c>
+      <c r="C676" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D676" s="11" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -15517,13 +15515,13 @@
         <v>6</v>
       </c>
       <c r="B677" s="65" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -15531,13 +15529,13 @@
         <v>6</v>
       </c>
       <c r="B678" s="65" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -15545,13 +15543,13 @@
         <v>6</v>
       </c>
       <c r="B679" s="65" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1518</v>
+        <v>1559</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1519</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -15559,13 +15557,13 @@
         <v>6</v>
       </c>
       <c r="B680" s="65" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C680" s="11" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D680" s="11" t="s">
-        <v>1567</v>
+        <v>1561</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -15573,13 +15571,13 @@
         <v>6</v>
       </c>
       <c r="B681" s="65" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1570</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -15587,13 +15585,13 @@
         <v>6</v>
       </c>
       <c r="B682" s="65" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>1573</v>
+        <v>1564</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D682" s="11" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -15601,13 +15599,13 @@
         <v>6</v>
       </c>
       <c r="B683" s="65" t="s">
-        <v>1667</v>
+        <v>1567</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -15615,13 +15613,13 @@
         <v>6</v>
       </c>
       <c r="B684" s="65" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -15629,13 +15627,13 @@
         <v>6</v>
       </c>
       <c r="B685" s="65" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C685" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D685" s="11" t="s">
-        <v>1579</v>
+        <v>1666</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -15643,27 +15641,27 @@
         <v>6</v>
       </c>
       <c r="B686" s="65" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B687" s="78" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C687" s="37" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D687" s="37" t="s">
-        <v>1582</v>
+      <c r="B687" s="65" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D687" s="11" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -15671,27 +15669,27 @@
         <v>6</v>
       </c>
       <c r="B688" s="65" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B689" s="65" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D689" s="1" t="s">
-        <v>1534</v>
+      <c r="B689" s="78" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C689" s="37" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D689" s="37" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -15699,13 +15697,13 @@
         <v>6</v>
       </c>
       <c r="B690" s="65" t="s">
-        <v>1535</v>
+        <v>1582</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1535</v>
+        <v>1583</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1535</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -15713,13 +15711,13 @@
         <v>6</v>
       </c>
       <c r="B691" s="65" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -15727,13 +15725,13 @@
         <v>6</v>
       </c>
       <c r="B692" s="65" t="s">
-        <v>1585</v>
+        <v>1534</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1585</v>
+        <v>1534</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1585</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -15741,13 +15739,13 @@
         <v>6</v>
       </c>
       <c r="B693" s="65" t="s">
-        <v>1586</v>
+        <v>1535</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1587</v>
+        <v>1536</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1586</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -15755,13 +15753,13 @@
         <v>6</v>
       </c>
       <c r="B694" s="65" t="s">
-        <v>1671</v>
+        <v>1584</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1670</v>
+        <v>1584</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -15769,13 +15767,13 @@
         <v>6</v>
       </c>
       <c r="B695" s="65" t="s">
-        <v>1544</v>
+        <v>1585</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>1545</v>
+        <v>1586</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1546</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -15783,13 +15781,13 @@
         <v>6</v>
       </c>
       <c r="B696" s="65" t="s">
-        <v>1585</v>
+        <v>1670</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1585</v>
+        <v>1669</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -15797,49 +15795,77 @@
         <v>6</v>
       </c>
       <c r="B697" s="65" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C697" s="18" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D697" s="18" t="s">
-        <v>1589</v>
+        <v>1543</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B698" s="1" t="s">
+      <c r="B698" s="65" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B699" s="65" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C699" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D699" s="18" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B701" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="C698" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D698" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B699" s="1" t="s">
+      <c r="C701" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="C699" s="1" t="s">
+      <c r="D701" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="D699" s="1" t="s">
-        <v>1675</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D697" xr:uid="{4F2D3964-5831-494F-85C1-49483C7B5DEB}"/>
+  <autoFilter ref="A1:D699" xr:uid="{4F2D3964-5831-494F-85C1-49483C7B5DEB}"/>
   <hyperlinks>
-    <hyperlink ref="B687" r:id="rId1" xr:uid="{E7030FA5-923F-48DE-9F04-D5F950AF653B}"/>
-    <hyperlink ref="C687" r:id="rId2" xr:uid="{7DB644E5-75E4-48F9-BF47-2DB3848E3C65}"/>
-    <hyperlink ref="D687" r:id="rId3" xr:uid="{AF85FC4D-947E-4605-AB7C-18FA74047D9D}"/>
+    <hyperlink ref="B689" r:id="rId1" xr:uid="{E7030FA5-923F-48DE-9F04-D5F950AF653B}"/>
+    <hyperlink ref="C689" r:id="rId2" xr:uid="{7DB644E5-75E4-48F9-BF47-2DB3848E3C65}"/>
+    <hyperlink ref="D689" r:id="rId3" xr:uid="{AF85FC4D-947E-4605-AB7C-18FA74047D9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -15866,10 +15892,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1" s="88" t="s">
         <v>1590</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15877,10 +15903,10 @@
         <v>222</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>1592</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15900,7 +15926,7 @@
         <v>360</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -15908,10 +15934,10 @@
         <v>491</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -15919,10 +15945,10 @@
         <v>491</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
@@ -15952,189 +15978,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>1595</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>1596</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>1597</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>1599</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>1600</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>1601</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>1603</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="48" t="s">
         <v>1604</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>1605</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>1607</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="50" t="s">
         <v>1608</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="52" t="s">
         <v>1609</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>1611</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="48" t="s">
         <v>1612</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="D5" s="58" t="s">
         <v>1613</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>1615</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="46" t="s">
         <v>1616</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>1617</v>
-      </c>
       <c r="D6" s="58" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>1618</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>1619</v>
-      </c>
       <c r="D7" s="52" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>1620</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="46" t="s">
         <v>1621</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>1622</v>
-      </c>
       <c r="D8" s="58" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>1623</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="C9" s="48" t="s">
         <v>1624</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>1625</v>
-      </c>
       <c r="D9" s="58" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="55" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>1626</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="C10" s="54" t="s">
         <v>1627</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>1628</v>
-      </c>
       <c r="D10" s="52" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>1629</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>1630</v>
-      </c>
       <c r="D11" s="47" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>1631</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="C12" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>1633</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
   </sheetData>
